--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_22_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_22_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>507206.3498808381</v>
+        <v>502578.7030986997</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30116226.0369027</v>
+        <v>30116226.03690271</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7289810.896587498</v>
+        <v>7289810.8965875</v>
       </c>
     </row>
     <row r="9">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>0.7413715737419651</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.570411643236317</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="F5" t="n">
         <v>0.7413715737419651</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0.5704116432363168</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.7413715737419651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -980,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.6530000821519227</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6530000821519226</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
         <v>0.7413715737419651</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0.7413715737419651</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.7413715737419651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.7413715737419651</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.7413715737419651</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.6530000821519227</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0.7413715737419651</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.6530000821519227</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.979937655612986</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>8.979937655612986</v>
       </c>
       <c r="D8" t="n">
-        <v>8.002770554088141</v>
+        <v>8.979937655612986</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>8.979937655612986</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>7.909529087063913</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>7.909529087063913</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>7.909529087063915</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>8.979937655612986</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>8.979937655612986</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>8.979937655612986</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>8.979937655612986</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>8.979937655612986</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>8.979937655612986</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1296,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7.909529087063915</v>
+      </c>
+      <c r="G10" t="n">
         <v>8.979937655612986</v>
-      </c>
-      <c r="E10" t="n">
-        <v>7.909529087063913</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>8.979937655612986</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>8.979937655612986</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>168.4784949399542</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>269.0349767746061</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>29.66262390997236</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>47.48041558717573</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>277.176001558223</v>
+        <v>263.0472165980682</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.90941067458684</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T14" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>255.632988972596</v>
@@ -1669,10 +1669,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>199.4130558061289</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>63.32136466518996</v>
+        <v>63.32136466518995</v>
       </c>
       <c r="T15" t="n">
         <v>136.7309641056443</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>115.9827883029662</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I16" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>254.7901869186015</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>95.96895325536306</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1855,10 +1855,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>286.4391832709924</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>63.32136466518996</v>
+        <v>63.32136466518995</v>
       </c>
       <c r="T18" t="n">
         <v>136.7309641056443</v>
@@ -2004,16 +2004,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>73.46449763378158</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U19" t="n">
-        <v>224.340234080422</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T20" t="n">
-        <v>66.8644762885483</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.632988972596</v>
+        <v>11.56587804842534</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>63.32136466518996</v>
+        <v>63.32136466518995</v>
       </c>
       <c r="T21" t="n">
         <v>136.7309641056443</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>20.30107754470241</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>126.8047072643584</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>327.3494118995827</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>398.177760651048</v>
+        <v>89.68969358959504</v>
       </c>
       <c r="H23" t="n">
-        <v>273.1996373253123</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>55.06172118771256</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.4451592506091</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.60192741872</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>163.6443779850655</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>133.9117463603411</v>
+        <v>86.20900026538027</v>
       </c>
       <c r="I25" t="n">
-        <v>70.20112935697679</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>3.851782371094671</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>151.8774041030857</v>
@@ -2535,16 +2535,16 @@
         <v>277.3307846315909</v>
       </c>
       <c r="V25" t="n">
-        <v>203.5242565975938</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>54.884763471692</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>398.177760651048</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>273.1996373253123</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>55.06172118771256</v>
       </c>
       <c r="T26" t="n">
-        <v>209.4451592506091</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>105.3834853527825</v>
       </c>
     </row>
     <row r="27">
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>23.813264782721</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.6443779850655</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>133.9117463603411</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>66.08236952506083</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>151.8774041030857</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>236.8467692862409</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3307846315909</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>156.4171681266168</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
@@ -2806,10 +2806,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.177760651048</v>
+        <v>86.79830875327478</v>
       </c>
       <c r="H29" t="n">
-        <v>273.1996373253123</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>55.06172118771256</v>
       </c>
       <c r="T29" t="n">
-        <v>209.4451592506091</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -2964,13 +2964,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>163.6443779850655</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>133.9117463603411</v>
       </c>
       <c r="I31" t="n">
-        <v>66.08236952505995</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>236.8467692862409</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3307846315909</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3018,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>101.3121393639469</v>
       </c>
     </row>
     <row r="32">
@@ -3040,13 +3040,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.177760651048</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>172.2560953388703</v>
+        <v>273.1996373253123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.4451592506091</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>255.60192741872</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>32.11815980380435</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3195,16 +3195,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.6443779850655</v>
       </c>
       <c r="H34" t="n">
-        <v>133.9117463603411</v>
+        <v>35.27407806560878</v>
       </c>
       <c r="I34" t="n">
         <v>70.20112935697679</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>3.851782371094671</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>151.8774041030857</v>
       </c>
       <c r="T34" t="n">
-        <v>113.8195015695761</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>277.3307846315909</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>37.1190364021129</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.177760651048</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>273.1996373253123</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.60192741872</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>78.75122694859004</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3426,16 +3426,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>123.8649729156182</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>70.20112935697679</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>3.851782371094671</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>151.8774041030857</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>87.95425058879577</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>121.3111023481182</v>
       </c>
       <c r="F38" t="n">
-        <v>350.9779149513548</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>398.177760651048</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>273.1996373253123</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>55.06172118771256</v>
       </c>
       <c r="T38" t="n">
-        <v>209.4451592506091</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.60192741872</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>28.42103375031455</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.6443779850655</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.9117463603411</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>70.20112935697679</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>3.851782371094671</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>151.8774041030857</v>
@@ -3717,13 +3717,13 @@
         <v>236.8467692862409</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3307846315909</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>158.1552992860209</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3745,19 +3745,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>158.262384134383</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>106.38735140111</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3912,7 +3912,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>163.6443779850655</v>
+        <v>29.26688314574466</v>
       </c>
       <c r="H43" t="n">
         <v>133.9117463603411</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>151.8774041030857</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>236.8467692862409</v>
       </c>
       <c r="U43" t="n">
-        <v>66.08236952506097</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>213.0724936278301</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>55.06172118771256</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>86.79830875327484</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>76.52959670049772</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -4149,10 +4149,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.6443779850655</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>133.9117463603411</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>70.20112935697679</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>3.851782371094671</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>151.8774041030857</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>236.8467692862409</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3307846315909</v>
       </c>
       <c r="V46" t="n">
-        <v>119.0464064119552</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8915925669676106</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8915925669676106</v>
+        <v>2.216626119470926</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8915925669676106</v>
+        <v>1.640452742464545</v>
       </c>
       <c r="E5" t="n">
         <v>0.8915925669676106</v>
@@ -4567,28 +4567,28 @@
         <v>0.05930972589935721</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05930972589935721</v>
+        <v>0.7932675839039026</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05930972589935721</v>
+        <v>0.7932675839039026</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05930972589935721</v>
+        <v>0.7932675839039026</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05930972589935721</v>
+        <v>1.497570578958769</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7932675839039026</v>
+        <v>2.231528436963315</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7932675839039026</v>
+        <v>2.231528436963315</v>
       </c>
       <c r="P5" t="n">
-        <v>1.527225441908448</v>
+        <v>2.231528436963315</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.261183299912993</v>
+        <v>2.231528436963315</v>
       </c>
       <c r="R5" t="n">
         <v>2.96548629496786</v>
@@ -4609,10 +4609,10 @@
         <v>2.96548629496786</v>
       </c>
       <c r="X5" t="n">
-        <v>2.38931291796148</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.640452742464545</v>
+        <v>2.96548629496786</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05930972589935721</v>
+        <v>1.467765943973991</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05930972589935721</v>
+        <v>1.467765943973991</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05930972589935721</v>
+        <v>0.8081699013962916</v>
       </c>
       <c r="E6" t="n">
         <v>0.05930972589935721</v>
@@ -4673,25 +4673,25 @@
         <v>2.96548629496786</v>
       </c>
       <c r="S6" t="n">
-        <v>2.305890252390161</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="T6" t="n">
-        <v>1.557030076893226</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="U6" t="n">
-        <v>1.557030076893226</v>
+        <v>2.216626119470926</v>
       </c>
       <c r="V6" t="n">
-        <v>1.557030076893226</v>
+        <v>2.216626119470926</v>
       </c>
       <c r="W6" t="n">
-        <v>1.557030076893226</v>
+        <v>2.216626119470926</v>
       </c>
       <c r="X6" t="n">
-        <v>0.8081699013962916</v>
+        <v>1.467765943973991</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.05930972589935721</v>
+        <v>1.467765943973991</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.216626119470926</v>
+        <v>0.8081699013962916</v>
       </c>
       <c r="C7" t="n">
-        <v>2.216626119470926</v>
+        <v>0.8081699013962916</v>
       </c>
       <c r="D7" t="n">
-        <v>2.216626119470926</v>
+        <v>0.8081699013962916</v>
       </c>
       <c r="E7" t="n">
-        <v>2.216626119470926</v>
+        <v>0.8081699013962916</v>
       </c>
       <c r="F7" t="n">
-        <v>2.216626119470926</v>
+        <v>0.8081699013962916</v>
       </c>
       <c r="G7" t="n">
-        <v>1.467765943973991</v>
+        <v>0.8081699013962916</v>
       </c>
       <c r="H7" t="n">
-        <v>0.718905768477057</v>
+        <v>0.8081699013962916</v>
       </c>
       <c r="I7" t="n">
         <v>0.05930972589935721</v>
@@ -4728,19 +4728,19 @@
         <v>0.7932675839039026</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7932675839039026</v>
+        <v>1.527225441908448</v>
       </c>
       <c r="L7" t="n">
-        <v>1.527225441908448</v>
+        <v>2.261183299912993</v>
       </c>
       <c r="M7" t="n">
         <v>2.261183299912993</v>
       </c>
       <c r="N7" t="n">
-        <v>2.96548629496786</v>
+        <v>2.261183299912993</v>
       </c>
       <c r="O7" t="n">
-        <v>2.96548629496786</v>
+        <v>2.261183299912993</v>
       </c>
       <c r="P7" t="n">
         <v>2.96548629496786</v>
@@ -4752,25 +4752,25 @@
         <v>2.216626119470926</v>
       </c>
       <c r="S7" t="n">
-        <v>2.216626119470926</v>
+        <v>1.467765943973991</v>
       </c>
       <c r="T7" t="n">
-        <v>2.216626119470926</v>
+        <v>0.8081699013962916</v>
       </c>
       <c r="U7" t="n">
-        <v>2.216626119470926</v>
+        <v>0.8081699013962916</v>
       </c>
       <c r="V7" t="n">
-        <v>2.216626119470926</v>
+        <v>0.8081699013962916</v>
       </c>
       <c r="W7" t="n">
-        <v>2.216626119470926</v>
+        <v>0.8081699013962916</v>
       </c>
       <c r="X7" t="n">
-        <v>2.216626119470926</v>
+        <v>0.8081699013962916</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.216626119470926</v>
+        <v>0.8081699013962916</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.87264572931887</v>
+        <v>35.91975062245194</v>
       </c>
       <c r="C8" t="n">
-        <v>8.80200163274009</v>
+        <v>26.84910652587317</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7183950124490389</v>
+        <v>17.77846242929439</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7183950124490389</v>
+        <v>8.707818332715618</v>
       </c>
       <c r="F8" t="n">
         <v>0.7183950124490389</v>
@@ -4804,28 +4804,28 @@
         <v>0.7183950124490389</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7183950124490389</v>
+        <v>1.326601820302672</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7183950124490389</v>
+        <v>1.326601820302672</v>
       </c>
       <c r="L8" t="n">
-        <v>9.608533291505895</v>
+        <v>3.900976779288493</v>
       </c>
       <c r="M8" t="n">
-        <v>18.13947406433823</v>
+        <v>11.91174853477717</v>
       </c>
       <c r="N8" t="n">
+        <v>20.80188681383403</v>
+      </c>
+      <c r="O8" t="n">
         <v>27.02961234339509</v>
       </c>
-      <c r="O8" t="n">
-        <v>35.91975062245194</v>
-      </c>
       <c r="P8" t="n">
-        <v>35.91975062245194</v>
+        <v>27.02961234339509</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.91975062245194</v>
+        <v>27.02961234339509</v>
       </c>
       <c r="R8" t="n">
         <v>35.91975062245194</v>
@@ -4846,10 +4846,10 @@
         <v>35.91975062245194</v>
       </c>
       <c r="X8" t="n">
-        <v>28.24015583060325</v>
+        <v>35.91975062245194</v>
       </c>
       <c r="Y8" t="n">
-        <v>26.94328982589764</v>
+        <v>35.91975062245194</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.707818332715618</v>
+        <v>26.84910652587317</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7183950124490389</v>
+        <v>26.84910652587317</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7183950124490389</v>
+        <v>18.85968320560659</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7183950124490389</v>
+        <v>9.789039109027813</v>
       </c>
       <c r="F9" t="n">
         <v>0.7183950124490389</v>
@@ -4910,25 +4910,25 @@
         <v>35.91975062245194</v>
       </c>
       <c r="S9" t="n">
-        <v>35.91975062245194</v>
+        <v>26.84910652587317</v>
       </c>
       <c r="T9" t="n">
-        <v>35.91975062245194</v>
+        <v>26.84910652587317</v>
       </c>
       <c r="U9" t="n">
         <v>26.84910652587317</v>
       </c>
       <c r="V9" t="n">
-        <v>17.77846242929439</v>
+        <v>26.84910652587317</v>
       </c>
       <c r="W9" t="n">
-        <v>8.707818332715618</v>
+        <v>26.84910652587317</v>
       </c>
       <c r="X9" t="n">
-        <v>8.707818332715618</v>
+        <v>26.84910652587317</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.707818332715618</v>
+        <v>26.84910652587317</v>
       </c>
     </row>
     <row r="10">
@@ -4944,13 +4944,13 @@
         <v>26.84910652587317</v>
       </c>
       <c r="D10" t="n">
-        <v>17.77846242929439</v>
+        <v>26.84910652587317</v>
       </c>
       <c r="E10" t="n">
-        <v>9.789039109027813</v>
+        <v>26.84910652587317</v>
       </c>
       <c r="F10" t="n">
-        <v>9.789039109027813</v>
+        <v>18.85968320560659</v>
       </c>
       <c r="G10" t="n">
         <v>9.789039109027813</v>
@@ -4962,43 +4962,43 @@
         <v>0.7183950124490389</v>
       </c>
       <c r="J10" t="n">
+        <v>0.7183950124490389</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.7183950124490389</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.7183950124490389</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7183950124490389</v>
+      </c>
+      <c r="N10" t="n">
         <v>9.608533291505895</v>
       </c>
-      <c r="K10" t="n">
+      <c r="O10" t="n">
         <v>18.49867157056275</v>
       </c>
-      <c r="L10" t="n">
-        <v>18.49867157056275</v>
-      </c>
-      <c r="M10" t="n">
-        <v>18.49867157056275</v>
-      </c>
-      <c r="N10" t="n">
-        <v>18.49867157056275</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>27.02961234339509</v>
-      </c>
-      <c r="P10" t="n">
-        <v>35.91975062245194</v>
       </c>
       <c r="Q10" t="n">
         <v>35.91975062245194</v>
       </c>
       <c r="R10" t="n">
-        <v>35.91975062245194</v>
+        <v>26.84910652587317</v>
       </c>
       <c r="S10" t="n">
-        <v>35.91975062245194</v>
+        <v>26.84910652587317</v>
       </c>
       <c r="T10" t="n">
-        <v>35.91975062245194</v>
+        <v>26.84910652587317</v>
       </c>
       <c r="U10" t="n">
-        <v>35.91975062245194</v>
+        <v>26.84910652587317</v>
       </c>
       <c r="V10" t="n">
-        <v>35.91975062245194</v>
+        <v>26.84910652587317</v>
       </c>
       <c r="W10" t="n">
         <v>26.84910652587317</v>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1135.744799251724</v>
+        <v>1337.53334481</v>
       </c>
       <c r="C11" t="n">
-        <v>1135.744799251724</v>
+        <v>1337.53334481</v>
       </c>
       <c r="D11" t="n">
-        <v>1135.744799251724</v>
+        <v>1167.353046890855</v>
       </c>
       <c r="E11" t="n">
-        <v>1135.744799251724</v>
+        <v>741.3761070387122</v>
       </c>
       <c r="F11" t="n">
-        <v>710.6206174411241</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="G11" t="n">
-        <v>308.0286678709237</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="H11" t="n">
         <v>36.27616607839227</v>
       </c>
       <c r="I11" t="n">
-        <v>68.08893453872679</v>
+        <v>68.08893453872669</v>
       </c>
       <c r="J11" t="n">
-        <v>184.2963411149083</v>
+        <v>184.296341114908</v>
       </c>
       <c r="K11" t="n">
-        <v>366.7061291250302</v>
+        <v>366.70612912503</v>
       </c>
       <c r="L11" t="n">
-        <v>598.9981372303105</v>
+        <v>598.9981372303101</v>
       </c>
       <c r="M11" t="n">
-        <v>862.6140377103482</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N11" t="n">
         <v>1131.245262923652</v>
@@ -5068,25 +5068,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S11" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T11" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="U11" t="n">
-        <v>1555.593163543254</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="V11" t="n">
-        <v>1555.593163543254</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="W11" t="n">
-        <v>1555.593163543254</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="X11" t="n">
-        <v>1555.593163543254</v>
+        <v>1337.53334481</v>
       </c>
       <c r="Y11" t="n">
-        <v>1555.593163543254</v>
+        <v>1337.53334481</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>75.26691519968658</v>
       </c>
       <c r="J12" t="n">
-        <v>141.4213503255156</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K12" t="n">
-        <v>267.1899758967556</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L12" t="n">
-        <v>443.8288267274046</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M12" t="n">
-        <v>653.1035252084196</v>
+        <v>945.2060176780107</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.021080428524</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O12" t="n">
-        <v>1427.076302632877</v>
+        <v>1357.404666497813</v>
       </c>
       <c r="P12" t="n">
-        <v>1580.47441747923</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q12" t="n">
         <v>1674.905125453736</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.23841245210173</v>
+        <v>579.234435575484</v>
       </c>
       <c r="C13" t="n">
-        <v>36.27616607839227</v>
+        <v>579.234435575484</v>
       </c>
       <c r="D13" t="n">
-        <v>36.27616607839227</v>
+        <v>415.9176627022547</v>
       </c>
       <c r="E13" t="n">
-        <v>36.27616607839227</v>
+        <v>249.7094568551082</v>
       </c>
       <c r="F13" t="n">
-        <v>36.27616607839227</v>
+        <v>249.7094568551082</v>
       </c>
       <c r="G13" t="n">
-        <v>36.27616607839227</v>
+        <v>84.23618182301422</v>
       </c>
       <c r="H13" t="n">
-        <v>36.27616607839227</v>
+        <v>84.23618182301422</v>
       </c>
       <c r="I13" t="n">
         <v>36.27616607839227</v>
@@ -5202,49 +5202,49 @@
         <v>148.0721041840598</v>
       </c>
       <c r="K13" t="n">
-        <v>216.556252028182</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L13" t="n">
-        <v>309.0520751284041</v>
+        <v>595.0234223693767</v>
       </c>
       <c r="M13" t="n">
-        <v>757.9696303485084</v>
+        <v>693.0767699469959</v>
       </c>
       <c r="N13" t="n">
-        <v>854.9683364404564</v>
+        <v>790.0754760389439</v>
       </c>
       <c r="O13" t="n">
-        <v>1303.885891660561</v>
+        <v>1238.993031259048</v>
       </c>
       <c r="P13" t="n">
-        <v>1687.383204375004</v>
+        <v>1622.490343973492</v>
       </c>
       <c r="Q13" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R13" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S13" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T13" t="n">
-        <v>1562.016618765574</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U13" t="n">
-        <v>1281.874917248078</v>
+        <v>1293.675768233716</v>
       </c>
       <c r="V13" t="n">
-        <v>1000.163449856107</v>
+        <v>1011.964300841744</v>
       </c>
       <c r="W13" t="n">
-        <v>725.3110460286202</v>
+        <v>1011.964300841744</v>
       </c>
       <c r="X13" t="n">
-        <v>482.7471494744253</v>
+        <v>769.4004042875496</v>
       </c>
       <c r="Y13" t="n">
-        <v>256.4043811641674</v>
+        <v>769.4004042875496</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>718.8438747983129</v>
+        <v>301.9804252683602</v>
       </c>
       <c r="C14" t="n">
-        <v>718.8438747983129</v>
+        <v>301.9804252683602</v>
       </c>
       <c r="D14" t="n">
-        <v>718.8438747983129</v>
+        <v>301.9804252683602</v>
       </c>
       <c r="E14" t="n">
-        <v>718.8438747983129</v>
+        <v>301.9804252683602</v>
       </c>
       <c r="F14" t="n">
-        <v>718.8438747983129</v>
+        <v>301.9804252683602</v>
       </c>
       <c r="G14" t="n">
-        <v>316.2519252281125</v>
+        <v>301.9804252683602</v>
       </c>
       <c r="H14" t="n">
         <v>36.27616607839227</v>
       </c>
       <c r="I14" t="n">
-        <v>68.08893453872679</v>
+        <v>68.08893453872669</v>
       </c>
       <c r="J14" t="n">
         <v>184.296341114908</v>
@@ -5284,7 +5284,7 @@
         <v>366.70612912503</v>
       </c>
       <c r="L14" t="n">
-        <v>598.9981372303102</v>
+        <v>598.9981372303101</v>
       </c>
       <c r="M14" t="n">
         <v>862.6140377103479</v>
@@ -5308,22 +5308,22 @@
         <v>1749.253343642253</v>
       </c>
       <c r="T14" t="n">
-        <v>1535.975759145523</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="U14" t="n">
-        <v>1277.760618769163</v>
+        <v>1491.038203265894</v>
       </c>
       <c r="V14" t="n">
-        <v>920.2712038954128</v>
+        <v>1133.548788392143</v>
       </c>
       <c r="W14" t="n">
-        <v>718.8438747983129</v>
+        <v>1133.548788392143</v>
       </c>
       <c r="X14" t="n">
-        <v>718.8438747983129</v>
+        <v>721.8287895598903</v>
       </c>
       <c r="Y14" t="n">
-        <v>718.8438747983129</v>
+        <v>721.8287895598903</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>75.26691519968658</v>
       </c>
       <c r="J15" t="n">
-        <v>433.5238427951066</v>
+        <v>141.4213503255156</v>
       </c>
       <c r="K15" t="n">
-        <v>628.9641045014107</v>
+        <v>590.3389055456199</v>
       </c>
       <c r="L15" t="n">
-        <v>805.6029553320595</v>
+        <v>766.9777563762689</v>
       </c>
       <c r="M15" t="n">
-        <v>1014.877653813075</v>
+        <v>976.2524548572839</v>
       </c>
       <c r="N15" t="n">
-        <v>1232.032635645391</v>
+        <v>1193.4074366896</v>
       </c>
       <c r="O15" t="n">
-        <v>1427.076302632877</v>
+        <v>1388.451103677087</v>
       </c>
       <c r="P15" t="n">
-        <v>1580.47441747923</v>
+        <v>1541.849218523439</v>
       </c>
       <c r="Q15" t="n">
         <v>1674.905125453736</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>622.5194413453036</v>
+        <v>790.9108302214947</v>
       </c>
       <c r="C16" t="n">
-        <v>450.5468782242195</v>
+        <v>673.7564986023369</v>
       </c>
       <c r="D16" t="n">
-        <v>450.5468782242195</v>
+        <v>510.4397257291076</v>
       </c>
       <c r="E16" t="n">
-        <v>284.3386723770731</v>
+        <v>510.4397257291076</v>
       </c>
       <c r="F16" t="n">
-        <v>112.4768981516335</v>
+        <v>338.577951503668</v>
       </c>
       <c r="G16" t="n">
-        <v>112.4768981516335</v>
+        <v>173.104676471574</v>
       </c>
       <c r="H16" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I16" t="n">
         <v>36.27616607839227</v>
@@ -5442,13 +5442,13 @@
         <v>463.838861142204</v>
       </c>
       <c r="L16" t="n">
-        <v>595.0234223693767</v>
+        <v>912.7564163623083</v>
       </c>
       <c r="M16" t="n">
-        <v>693.0767699469959</v>
+        <v>1010.809763939928</v>
       </c>
       <c r="N16" t="n">
-        <v>790.0754760389439</v>
+        <v>1152.699903436724</v>
       </c>
       <c r="O16" t="n">
         <v>1238.993031259048</v>
@@ -5466,22 +5466,22 @@
         <v>1813.808303919614</v>
       </c>
       <c r="T16" t="n">
-        <v>1813.808303919614</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U16" t="n">
-        <v>1813.808303919614</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="V16" t="n">
-        <v>1556.444478749309</v>
+        <v>1292.10600235924</v>
       </c>
       <c r="W16" t="n">
-        <v>1281.592074921822</v>
+        <v>1017.253598531753</v>
       </c>
       <c r="X16" t="n">
-        <v>1039.028178367627</v>
+        <v>1017.253598531753</v>
       </c>
       <c r="Y16" t="n">
-        <v>812.6854100573692</v>
+        <v>790.9108302214947</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1716.869967298035</v>
+        <v>889.1538359172346</v>
       </c>
       <c r="C17" t="n">
-        <v>1289.969237311335</v>
+        <v>462.2531059305347</v>
       </c>
       <c r="D17" t="n">
-        <v>1289.969237311335</v>
+        <v>462.2531059305347</v>
       </c>
       <c r="E17" t="n">
-        <v>863.9922974591925</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="F17" t="n">
-        <v>438.8681156485927</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="G17" t="n">
         <v>36.27616607839227</v>
@@ -5512,7 +5512,7 @@
         <v>36.27616607839227</v>
       </c>
       <c r="I17" t="n">
-        <v>68.08893453872656</v>
+        <v>68.08893453872669</v>
       </c>
       <c r="J17" t="n">
         <v>184.296341114908</v>
@@ -5521,10 +5521,10 @@
         <v>366.7061291250302</v>
       </c>
       <c r="L17" t="n">
-        <v>598.9981372303105</v>
+        <v>598.9981372303106</v>
       </c>
       <c r="M17" t="n">
-        <v>862.6140377103482</v>
+        <v>862.6140377103484</v>
       </c>
       <c r="N17" t="n">
         <v>1131.245262923652</v>
@@ -5533,7 +5533,7 @@
         <v>1382.739131455147</v>
       </c>
       <c r="P17" t="n">
-        <v>1591.776917090909</v>
+        <v>1591.77691709091</v>
       </c>
       <c r="Q17" t="n">
         <v>1740.92751718922</v>
@@ -5542,25 +5542,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S17" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T17" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U17" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="V17" t="n">
-        <v>1813.808303919614</v>
+        <v>1178.486344271772</v>
       </c>
       <c r="W17" t="n">
-        <v>1813.808303919614</v>
+        <v>1178.486344271772</v>
       </c>
       <c r="X17" t="n">
-        <v>1813.808303919614</v>
+        <v>889.1538359172346</v>
       </c>
       <c r="Y17" t="n">
-        <v>1813.808303919614</v>
+        <v>889.1538359172346</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>593.4367873432371</v>
+        <v>593.4367873432373</v>
       </c>
       <c r="C18" t="n">
-        <v>475.9308838607419</v>
+        <v>475.930883860742</v>
       </c>
       <c r="D18" t="n">
-        <v>372.0909253760269</v>
+        <v>372.090925376027</v>
       </c>
       <c r="E18" t="n">
-        <v>267.3889916489641</v>
+        <v>267.3889916489642</v>
       </c>
       <c r="F18" t="n">
-        <v>173.7431613318683</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G18" t="n">
         <v>80.62417733004327</v>
@@ -5591,25 +5591,25 @@
         <v>36.27616607839227</v>
       </c>
       <c r="I18" t="n">
-        <v>51.80960935527473</v>
+        <v>75.26691519968658</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5526221910817</v>
+        <v>207.6760385564189</v>
       </c>
       <c r="K18" t="n">
-        <v>389.3212477623217</v>
+        <v>333.4446641276589</v>
       </c>
       <c r="L18" t="n">
-        <v>565.9600985929706</v>
+        <v>510.0835149583079</v>
       </c>
       <c r="M18" t="n">
-        <v>1014.877653813075</v>
+        <v>719.3582134393229</v>
       </c>
       <c r="N18" t="n">
-        <v>1232.032635645391</v>
+        <v>936.513195271639</v>
       </c>
       <c r="O18" t="n">
-        <v>1427.076302632878</v>
+        <v>1131.556862259126</v>
       </c>
       <c r="P18" t="n">
         <v>1580.47441747923</v>
@@ -5618,10 +5618,10 @@
         <v>1674.905125453736</v>
       </c>
       <c r="R18" t="n">
-        <v>1813.808303919614</v>
+        <v>1813.808303919613</v>
       </c>
       <c r="S18" t="n">
-        <v>1749.847329510331</v>
+        <v>1749.84732951033</v>
       </c>
       <c r="T18" t="n">
         <v>1611.735244555134</v>
@@ -5636,10 +5636,10 @@
         <v>1025.534031643345</v>
       </c>
       <c r="X18" t="n">
-        <v>862.0566854100075</v>
+        <v>862.0566854100076</v>
       </c>
       <c r="Y18" t="n">
-        <v>722.3637967632999</v>
+        <v>722.3637967633</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>371.5655020727056</v>
+        <v>352.891667265226</v>
       </c>
       <c r="C19" t="n">
-        <v>199.5929389516216</v>
+        <v>352.891667265226</v>
       </c>
       <c r="D19" t="n">
-        <v>36.27616607839227</v>
+        <v>352.891667265226</v>
       </c>
       <c r="E19" t="n">
-        <v>36.27616607839227</v>
+        <v>186.6834614180795</v>
       </c>
       <c r="F19" t="n">
-        <v>36.27616607839227</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="G19" t="n">
-        <v>36.27616607839227</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="H19" t="n">
-        <v>36.27616607839227</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="I19" t="n">
         <v>36.27616607839227</v>
@@ -5679,10 +5679,10 @@
         <v>463.838861142204</v>
       </c>
       <c r="L19" t="n">
-        <v>595.0234223693767</v>
+        <v>556.3346842424261</v>
       </c>
       <c r="M19" t="n">
-        <v>693.0767699469959</v>
+        <v>654.3880318200453</v>
       </c>
       <c r="N19" t="n">
         <v>790.0754760389439</v>
@@ -5703,22 +5703,22 @@
         <v>1813.808303919614</v>
       </c>
       <c r="T19" t="n">
-        <v>1813.808303919614</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U19" t="n">
-        <v>1587.202006868682</v>
+        <v>1293.675768233716</v>
       </c>
       <c r="V19" t="n">
-        <v>1305.490539476711</v>
+        <v>1011.964300841744</v>
       </c>
       <c r="W19" t="n">
-        <v>1030.638135649224</v>
+        <v>1011.964300841744</v>
       </c>
       <c r="X19" t="n">
-        <v>788.0742390950292</v>
+        <v>769.4004042875496</v>
       </c>
       <c r="Y19" t="n">
-        <v>561.7314707847712</v>
+        <v>543.0576359772916</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>718.8438747983129</v>
+        <v>1737.570638542834</v>
       </c>
       <c r="C20" t="n">
-        <v>718.8438747983129</v>
+        <v>1310.669908556134</v>
       </c>
       <c r="D20" t="n">
-        <v>718.8438747983129</v>
+        <v>887.3772877411345</v>
       </c>
       <c r="E20" t="n">
-        <v>718.8438747983129</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="F20" t="n">
-        <v>718.8438747983129</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G20" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H20" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I20" t="n">
-        <v>68.08893453872679</v>
+        <v>68.08893453872672</v>
       </c>
       <c r="J20" t="n">
         <v>184.296341114908</v>
       </c>
       <c r="K20" t="n">
-        <v>366.7061291250302</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L20" t="n">
-        <v>598.9981372303105</v>
+        <v>598.99813723031</v>
       </c>
       <c r="M20" t="n">
-        <v>862.6140377103482</v>
+        <v>862.6140377103477</v>
       </c>
       <c r="N20" t="n">
         <v>1131.245262923652</v>
@@ -5779,25 +5779,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S20" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T20" t="n">
-        <v>1746.268428880676</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U20" t="n">
-        <v>1488.053288504316</v>
+        <v>1737.570638542834</v>
       </c>
       <c r="V20" t="n">
-        <v>1130.563873630566</v>
+        <v>1737.570638542834</v>
       </c>
       <c r="W20" t="n">
-        <v>1130.563873630566</v>
+        <v>1737.570638542834</v>
       </c>
       <c r="X20" t="n">
-        <v>718.8438747983129</v>
+        <v>1737.570638542834</v>
       </c>
       <c r="Y20" t="n">
-        <v>718.8438747983129</v>
+        <v>1737.570638542834</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>593.4367873432373</v>
+        <v>593.4367873432378</v>
       </c>
       <c r="C21" t="n">
-        <v>475.930883860742</v>
+        <v>475.9308838607426</v>
       </c>
       <c r="D21" t="n">
-        <v>372.090925376027</v>
+        <v>372.0909253760275</v>
       </c>
       <c r="E21" t="n">
-        <v>267.3889916489642</v>
+        <v>267.3889916489647</v>
       </c>
       <c r="F21" t="n">
-        <v>173.7431613318684</v>
+        <v>173.7431613318688</v>
       </c>
       <c r="G21" t="n">
-        <v>80.62417733004327</v>
+        <v>80.62417733004349</v>
       </c>
       <c r="H21" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I21" t="n">
-        <v>75.26691519968658</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J21" t="n">
-        <v>433.5238427951066</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K21" t="n">
-        <v>628.9641045014107</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L21" t="n">
-        <v>805.6029553320595</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M21" t="n">
-        <v>1014.877653813075</v>
+        <v>945.2060176780107</v>
       </c>
       <c r="N21" t="n">
-        <v>1232.032635645391</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O21" t="n">
-        <v>1427.076302632877</v>
+        <v>1357.404666497813</v>
       </c>
       <c r="P21" t="n">
-        <v>1580.47441747923</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q21" t="n">
-        <v>1674.905125453736</v>
+        <v>1674.905125453737</v>
       </c>
       <c r="R21" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S21" t="n">
-        <v>1749.84732951033</v>
+        <v>1749.847329510331</v>
       </c>
       <c r="T21" t="n">
-        <v>1611.735244555134</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U21" t="n">
-        <v>1427.028547670861</v>
+        <v>1427.028547670862</v>
       </c>
       <c r="V21" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W21" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X21" t="n">
-        <v>862.0566854100076</v>
+        <v>862.0566854100082</v>
       </c>
       <c r="Y21" t="n">
-        <v>722.3637967633</v>
+        <v>722.3637967633006</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>380.1105034249158</v>
+        <v>866.2352006574638</v>
       </c>
       <c r="C22" t="n">
-        <v>208.1379403038318</v>
+        <v>694.2626375363798</v>
       </c>
       <c r="D22" t="n">
-        <v>208.1379403038318</v>
+        <v>530.9458646631505</v>
       </c>
       <c r="E22" t="n">
-        <v>208.1379403038318</v>
+        <v>510.4397257291076</v>
       </c>
       <c r="F22" t="n">
-        <v>36.27616607839227</v>
+        <v>338.577951503668</v>
       </c>
       <c r="G22" t="n">
-        <v>36.27616607839227</v>
+        <v>173.104676471574</v>
       </c>
       <c r="H22" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I22" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J22" t="n">
         <v>148.0721041840598</v>
@@ -5916,16 +5916,16 @@
         <v>463.838861142204</v>
       </c>
       <c r="L22" t="n">
-        <v>912.7564163623083</v>
+        <v>912.7564163623085</v>
       </c>
       <c r="M22" t="n">
-        <v>1361.673971582413</v>
+        <v>1010.809763939928</v>
       </c>
       <c r="N22" t="n">
-        <v>1465.456108010032</v>
+        <v>1152.699903436724</v>
       </c>
       <c r="O22" t="n">
-        <v>1551.749235832356</v>
+        <v>1238.993031259049</v>
       </c>
       <c r="P22" t="n">
         <v>1622.490343973492</v>
@@ -5940,22 +5940,22 @@
         <v>1813.808303919614</v>
       </c>
       <c r="T22" t="n">
-        <v>1685.722741026322</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U22" t="n">
-        <v>1405.581039508827</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="V22" t="n">
-        <v>1123.869572116856</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="W22" t="n">
-        <v>849.0171682893687</v>
+        <v>1298.965065923724</v>
       </c>
       <c r="X22" t="n">
-        <v>606.4532717351738</v>
+        <v>1056.401169369529</v>
       </c>
       <c r="Y22" t="n">
-        <v>380.1105034249158</v>
+        <v>1056.401169369529</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1905.963171558556</v>
+        <v>563.5434705023641</v>
       </c>
       <c r="C23" t="n">
-        <v>1905.963171558556</v>
+        <v>136.6427405156642</v>
       </c>
       <c r="D23" t="n">
-        <v>1575.307199942816</v>
+        <v>136.6427405156642</v>
       </c>
       <c r="E23" t="n">
-        <v>1149.330260090673</v>
+        <v>136.6427405156642</v>
       </c>
       <c r="F23" t="n">
-        <v>724.2060782800736</v>
+        <v>136.6427405156642</v>
       </c>
       <c r="G23" t="n">
-        <v>322.0063200466918</v>
+        <v>46.04709042516419</v>
       </c>
       <c r="H23" t="n">
-        <v>46.04709042516418</v>
+        <v>46.04709042516419</v>
       </c>
       <c r="I23" t="n">
-        <v>92.67892826359116</v>
+        <v>92.67892826359173</v>
       </c>
       <c r="J23" t="n">
-        <v>241.5106779985535</v>
+        <v>241.5106779985543</v>
       </c>
       <c r="K23" t="n">
-        <v>472.8158994151625</v>
+        <v>472.8158994151632</v>
       </c>
       <c r="L23" t="n">
-        <v>765.7670162911685</v>
+        <v>765.7670162911691</v>
       </c>
       <c r="M23" t="n">
         <v>1096.877863037624</v>
@@ -6016,25 +6016,25 @@
         <v>2302.354521258209</v>
       </c>
       <c r="S23" t="n">
-        <v>2302.354521258209</v>
+        <v>2246.736621068601</v>
       </c>
       <c r="T23" t="n">
-        <v>2302.354521258209</v>
+        <v>2035.175854148794</v>
       </c>
       <c r="U23" t="n">
-        <v>2302.354521258209</v>
+        <v>1776.99208907938</v>
       </c>
       <c r="V23" t="n">
-        <v>2302.354521258209</v>
+        <v>1776.99208907938</v>
       </c>
       <c r="W23" t="n">
-        <v>1905.963171558556</v>
+        <v>1380.600739379727</v>
       </c>
       <c r="X23" t="n">
-        <v>1905.963171558556</v>
+        <v>968.8807405474738</v>
       </c>
       <c r="Y23" t="n">
-        <v>1905.963171558556</v>
+        <v>563.5434705023641</v>
       </c>
     </row>
     <row r="24">
@@ -6059,37 +6059,37 @@
         <v>181.2776238302285</v>
       </c>
       <c r="G24" t="n">
-        <v>88.36848069319257</v>
+        <v>88.36848069319258</v>
       </c>
       <c r="H24" t="n">
-        <v>46.04709042516418</v>
+        <v>46.04709042516419</v>
       </c>
       <c r="I24" t="n">
-        <v>92.11885050217187</v>
+        <v>68.66154465776003</v>
       </c>
       <c r="J24" t="n">
-        <v>177.7041209142457</v>
+        <v>300.7332125583082</v>
       </c>
       <c r="K24" t="n">
-        <v>354.2567302467443</v>
+        <v>459.7122305316501</v>
       </c>
       <c r="L24" t="n">
-        <v>575.5510520789971</v>
+        <v>681.006552363903</v>
       </c>
       <c r="M24" t="n">
-        <v>836.9365789563894</v>
+        <v>942.3920792412953</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.581607752126</v>
+        <v>1213.037108037031</v>
       </c>
       <c r="O24" t="n">
-        <v>1351.558217582234</v>
+        <v>1457.01371786714</v>
       </c>
       <c r="P24" t="n">
-        <v>1544.229333064237</v>
+        <v>1649.684833349143</v>
       </c>
       <c r="Q24" t="n">
-        <v>1664.913001912001</v>
+        <v>1770.368502196907</v>
       </c>
       <c r="R24" t="n">
         <v>1816.58545312808</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>918.9058168077305</v>
+        <v>640.2779988927759</v>
       </c>
       <c r="C25" t="n">
-        <v>918.9058168077305</v>
+        <v>468.3054357716919</v>
       </c>
       <c r="D25" t="n">
-        <v>755.5890439345012</v>
+        <v>304.9886628984626</v>
       </c>
       <c r="E25" t="n">
-        <v>589.3808380873547</v>
+        <v>304.9886628984626</v>
       </c>
       <c r="F25" t="n">
-        <v>417.5190638619151</v>
+        <v>133.126888673023</v>
       </c>
       <c r="G25" t="n">
-        <v>252.2217123618489</v>
+        <v>133.126888673023</v>
       </c>
       <c r="H25" t="n">
-        <v>116.9573220988781</v>
+        <v>46.04709042516419</v>
       </c>
       <c r="I25" t="n">
-        <v>46.04709042516418</v>
+        <v>46.04709042516419</v>
       </c>
       <c r="J25" t="n">
-        <v>170.0333101502821</v>
+        <v>92.11159350206121</v>
       </c>
       <c r="K25" t="n">
-        <v>505.8324445157267</v>
+        <v>427.9107278675058</v>
       </c>
       <c r="L25" t="n">
-        <v>919.5822428412678</v>
+        <v>870.1386807323142</v>
       </c>
       <c r="M25" t="n">
-        <v>1458.199105594861</v>
+        <v>995.2200630230853</v>
       </c>
       <c r="N25" t="n">
-        <v>1581.58318014511</v>
+        <v>1516.637060415215</v>
       </c>
       <c r="O25" t="n">
-        <v>1692.247466334313</v>
+        <v>2005.003670907621</v>
       </c>
       <c r="P25" t="n">
-        <v>2096.598515279329</v>
+        <v>2096.59851527933</v>
       </c>
       <c r="Q25" t="n">
         <v>2302.354521258209</v>
       </c>
       <c r="R25" t="n">
-        <v>2298.463831994477</v>
+        <v>2302.354521258209</v>
       </c>
       <c r="S25" t="n">
-        <v>2145.052312698431</v>
+        <v>2148.943001962163</v>
       </c>
       <c r="T25" t="n">
-        <v>1905.813151803238</v>
+        <v>1909.70384106697</v>
       </c>
       <c r="U25" t="n">
-        <v>1625.681046114762</v>
+        <v>1629.571735378495</v>
       </c>
       <c r="V25" t="n">
-        <v>1420.100988945476</v>
+        <v>1347.860267986523</v>
       </c>
       <c r="W25" t="n">
-        <v>1145.248585117989</v>
+        <v>1073.007864159036</v>
       </c>
       <c r="X25" t="n">
-        <v>1145.248585117989</v>
+        <v>830.4439676048415</v>
       </c>
       <c r="Y25" t="n">
-        <v>918.9058168077305</v>
+        <v>830.4439676048415</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1629.838584103684</v>
+        <v>1324.048942074606</v>
       </c>
       <c r="C26" t="n">
-        <v>1202.937854116984</v>
+        <v>897.1482120879064</v>
       </c>
       <c r="D26" t="n">
-        <v>779.6452333019847</v>
+        <v>897.1482120879064</v>
       </c>
       <c r="E26" t="n">
-        <v>779.6452333019847</v>
+        <v>471.171272235764</v>
       </c>
       <c r="F26" t="n">
-        <v>724.2060782800736</v>
+        <v>46.04709042516417</v>
       </c>
       <c r="G26" t="n">
-        <v>322.0063200466918</v>
+        <v>46.04709042516417</v>
       </c>
       <c r="H26" t="n">
-        <v>46.04709042516419</v>
+        <v>46.04709042516417</v>
       </c>
       <c r="I26" t="n">
-        <v>92.67892826359116</v>
+        <v>92.67892826359139</v>
       </c>
       <c r="J26" t="n">
-        <v>241.5106779985535</v>
+        <v>241.510677998554</v>
       </c>
       <c r="K26" t="n">
-        <v>472.8158994151625</v>
+        <v>472.8158994151628</v>
       </c>
       <c r="L26" t="n">
-        <v>765.7670162911685</v>
+        <v>765.7670162911688</v>
       </c>
       <c r="M26" t="n">
         <v>1096.877863037624</v>
@@ -6241,37 +6241,37 @@
         <v>1434.09617331173</v>
       </c>
       <c r="O26" t="n">
-        <v>1750.354881365388</v>
+        <v>1750.354881365387</v>
       </c>
       <c r="P26" t="n">
-        <v>2014.667959145797</v>
+        <v>2014.667959145796</v>
       </c>
       <c r="Q26" t="n">
         <v>2205.328001648712</v>
       </c>
       <c r="R26" t="n">
-        <v>2302.354521258209</v>
+        <v>2302.354521258208</v>
       </c>
       <c r="S26" t="n">
-        <v>2246.736621068601</v>
+        <v>2246.7366210686</v>
       </c>
       <c r="T26" t="n">
-        <v>2035.175854148794</v>
+        <v>2246.7366210686</v>
       </c>
       <c r="U26" t="n">
-        <v>2035.175854148794</v>
+        <v>2246.7366210686</v>
       </c>
       <c r="V26" t="n">
-        <v>2035.175854148794</v>
+        <v>2246.7366210686</v>
       </c>
       <c r="W26" t="n">
-        <v>2035.175854148794</v>
+        <v>1850.345271368947</v>
       </c>
       <c r="X26" t="n">
-        <v>2035.175854148794</v>
+        <v>1850.345271368947</v>
       </c>
       <c r="Y26" t="n">
-        <v>1629.838584103684</v>
+        <v>1743.897306366136</v>
       </c>
     </row>
     <row r="27">
@@ -6296,37 +6296,37 @@
         <v>181.2776238302285</v>
       </c>
       <c r="G27" t="n">
-        <v>88.36848069319258</v>
+        <v>88.36848069319257</v>
       </c>
       <c r="H27" t="n">
-        <v>46.04709042516419</v>
+        <v>46.04709042516417</v>
       </c>
       <c r="I27" t="n">
-        <v>68.66154465776003</v>
+        <v>92.11885050217185</v>
       </c>
       <c r="J27" t="n">
-        <v>300.7332125583082</v>
+        <v>195.2777122734024</v>
       </c>
       <c r="K27" t="n">
-        <v>459.7122305316501</v>
+        <v>354.2567302467443</v>
       </c>
       <c r="L27" t="n">
-        <v>681.006552363903</v>
+        <v>575.5510520789971</v>
       </c>
       <c r="M27" t="n">
-        <v>942.3920792412953</v>
+        <v>836.9365789563894</v>
       </c>
       <c r="N27" t="n">
-        <v>1213.037108037031</v>
+        <v>1107.581607752126</v>
       </c>
       <c r="O27" t="n">
-        <v>1457.01371786714</v>
+        <v>1351.558217582234</v>
       </c>
       <c r="P27" t="n">
-        <v>1649.684833349143</v>
+        <v>1544.229333064237</v>
       </c>
       <c r="Q27" t="n">
-        <v>1770.368502196907</v>
+        <v>1664.913001912001</v>
       </c>
       <c r="R27" t="n">
         <v>1816.58545312808</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1086.718016462233</v>
+        <v>413.935230582517</v>
       </c>
       <c r="C28" t="n">
-        <v>914.7454533411487</v>
+        <v>241.962667461433</v>
       </c>
       <c r="D28" t="n">
-        <v>751.4286804679194</v>
+        <v>241.962667461433</v>
       </c>
       <c r="E28" t="n">
-        <v>585.220474620773</v>
+        <v>217.9088646506037</v>
       </c>
       <c r="F28" t="n">
-        <v>413.3587003953334</v>
+        <v>46.04709042516417</v>
       </c>
       <c r="G28" t="n">
-        <v>248.0613488952671</v>
+        <v>46.04709042516417</v>
       </c>
       <c r="H28" t="n">
-        <v>112.7969586322963</v>
+        <v>46.04709042516417</v>
       </c>
       <c r="I28" t="n">
-        <v>46.04709042516419</v>
+        <v>46.04709042516417</v>
       </c>
       <c r="J28" t="n">
-        <v>170.0333101502821</v>
+        <v>92.1115935020612</v>
       </c>
       <c r="K28" t="n">
-        <v>505.8324445157267</v>
+        <v>180.6281187534838</v>
       </c>
       <c r="L28" t="n">
-        <v>1000.351707382309</v>
+        <v>675.1473816200657</v>
       </c>
       <c r="M28" t="n">
-        <v>1125.43308967308</v>
+        <v>1213.764244373659</v>
       </c>
       <c r="N28" t="n">
-        <v>1248.817164223329</v>
+        <v>1735.181241765788</v>
       </c>
       <c r="O28" t="n">
-        <v>1692.247466334313</v>
+        <v>2156.377168285519</v>
       </c>
       <c r="P28" t="n">
-        <v>2096.59851527933</v>
+        <v>2247.972012657228</v>
       </c>
       <c r="Q28" t="n">
-        <v>2302.354521258209</v>
+        <v>2302.354521258208</v>
       </c>
       <c r="R28" t="n">
-        <v>2302.354521258209</v>
+        <v>2302.354521258208</v>
       </c>
       <c r="S28" t="n">
-        <v>2302.354521258209</v>
+        <v>2148.943001962162</v>
       </c>
       <c r="T28" t="n">
-        <v>2302.354521258209</v>
+        <v>1909.703841066969</v>
       </c>
       <c r="U28" t="n">
-        <v>2302.354521258209</v>
+        <v>1629.571735378494</v>
       </c>
       <c r="V28" t="n">
-        <v>2020.643053866238</v>
+        <v>1347.860267986523</v>
       </c>
       <c r="W28" t="n">
-        <v>1745.790650038751</v>
+        <v>1073.007864159036</v>
       </c>
       <c r="X28" t="n">
-        <v>1503.226753484556</v>
+        <v>830.4439676048406</v>
       </c>
       <c r="Y28" t="n">
-        <v>1276.883985174298</v>
+        <v>604.1011992945827</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1733.304339464651</v>
+        <v>1835.016622236348</v>
       </c>
       <c r="C29" t="n">
-        <v>1733.304339464651</v>
+        <v>1408.115892249648</v>
       </c>
       <c r="D29" t="n">
-        <v>1575.307199942816</v>
+        <v>984.8232714346486</v>
       </c>
       <c r="E29" t="n">
-        <v>1149.330260090673</v>
+        <v>558.8463315825062</v>
       </c>
       <c r="F29" t="n">
-        <v>724.2060782800736</v>
+        <v>133.7221497719064</v>
       </c>
       <c r="G29" t="n">
-        <v>322.0063200466918</v>
+        <v>46.04709042516419</v>
       </c>
       <c r="H29" t="n">
-        <v>46.04709042516417</v>
+        <v>46.04709042516419</v>
       </c>
       <c r="I29" t="n">
-        <v>92.67892826359116</v>
+        <v>92.67892826359173</v>
       </c>
       <c r="J29" t="n">
-        <v>241.5106779985535</v>
+        <v>241.5106779985543</v>
       </c>
       <c r="K29" t="n">
-        <v>472.8158994151624</v>
+        <v>472.8158994151632</v>
       </c>
       <c r="L29" t="n">
-        <v>765.7670162911684</v>
+        <v>765.7670162911691</v>
       </c>
       <c r="M29" t="n">
         <v>1096.877863037624</v>
@@ -6478,37 +6478,37 @@
         <v>1434.09617331173</v>
       </c>
       <c r="O29" t="n">
-        <v>1750.354881365387</v>
+        <v>1750.354881365388</v>
       </c>
       <c r="P29" t="n">
-        <v>2014.667959145796</v>
+        <v>2014.667959145797</v>
       </c>
       <c r="Q29" t="n">
         <v>2205.328001648712</v>
       </c>
       <c r="R29" t="n">
-        <v>2302.354521258208</v>
+        <v>2302.354521258209</v>
       </c>
       <c r="S29" t="n">
-        <v>2302.354521258208</v>
+        <v>2246.736621068601</v>
       </c>
       <c r="T29" t="n">
-        <v>2090.793754338401</v>
+        <v>2246.736621068601</v>
       </c>
       <c r="U29" t="n">
-        <v>2090.793754338401</v>
+        <v>2246.736621068601</v>
       </c>
       <c r="V29" t="n">
-        <v>1733.304339464651</v>
+        <v>2246.736621068601</v>
       </c>
       <c r="W29" t="n">
-        <v>1733.304339464651</v>
+        <v>2246.736621068601</v>
       </c>
       <c r="X29" t="n">
-        <v>1733.304339464651</v>
+        <v>1835.016622236348</v>
       </c>
       <c r="Y29" t="n">
-        <v>1733.304339464651</v>
+        <v>1835.016622236348</v>
       </c>
     </row>
     <row r="30">
@@ -6533,37 +6533,37 @@
         <v>181.2776238302285</v>
       </c>
       <c r="G30" t="n">
-        <v>88.36848069319257</v>
+        <v>88.36848069319258</v>
       </c>
       <c r="H30" t="n">
-        <v>46.04709042516417</v>
+        <v>46.04709042516419</v>
       </c>
       <c r="I30" t="n">
-        <v>68.66154465776002</v>
+        <v>92.11885050217188</v>
       </c>
       <c r="J30" t="n">
-        <v>300.7332125583082</v>
+        <v>195.2777122734024</v>
       </c>
       <c r="K30" t="n">
-        <v>459.7122305316501</v>
+        <v>354.2567302467443</v>
       </c>
       <c r="L30" t="n">
-        <v>681.006552363903</v>
+        <v>575.5510520789971</v>
       </c>
       <c r="M30" t="n">
-        <v>942.3920792412953</v>
+        <v>836.9365789563894</v>
       </c>
       <c r="N30" t="n">
-        <v>1213.037108037031</v>
+        <v>1107.581607752126</v>
       </c>
       <c r="O30" t="n">
-        <v>1457.01371786714</v>
+        <v>1351.558217582234</v>
       </c>
       <c r="P30" t="n">
-        <v>1649.684833349143</v>
+        <v>1544.229333064237</v>
       </c>
       <c r="Q30" t="n">
-        <v>1770.368502196907</v>
+        <v>1664.913001912001</v>
       </c>
       <c r="R30" t="n">
         <v>1816.58545312808</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1086.718016462232</v>
+        <v>691.354023881805</v>
       </c>
       <c r="C31" t="n">
-        <v>914.7454533411478</v>
+        <v>519.381460760721</v>
       </c>
       <c r="D31" t="n">
-        <v>751.4286804679185</v>
+        <v>519.381460760721</v>
       </c>
       <c r="E31" t="n">
-        <v>585.2204746207721</v>
+        <v>353.1732549135746</v>
       </c>
       <c r="F31" t="n">
-        <v>413.3587003953324</v>
+        <v>181.311480688135</v>
       </c>
       <c r="G31" t="n">
-        <v>248.0613488952662</v>
+        <v>181.311480688135</v>
       </c>
       <c r="H31" t="n">
-        <v>112.7969586322954</v>
+        <v>46.04709042516419</v>
       </c>
       <c r="I31" t="n">
-        <v>46.04709042516417</v>
+        <v>46.04709042516419</v>
       </c>
       <c r="J31" t="n">
         <v>170.0333101502821</v>
@@ -6627,46 +6627,46 @@
         <v>505.8324445157267</v>
       </c>
       <c r="L31" t="n">
-        <v>623.9628137911437</v>
+        <v>1000.351707382309</v>
       </c>
       <c r="M31" t="n">
-        <v>1162.579676544737</v>
+        <v>1125.43308967308</v>
       </c>
       <c r="N31" t="n">
-        <v>1285.963751094986</v>
+        <v>1248.817164223329</v>
       </c>
       <c r="O31" t="n">
-        <v>1692.247466334312</v>
+        <v>1692.247466334313</v>
       </c>
       <c r="P31" t="n">
-        <v>2096.598515279329</v>
+        <v>2096.59851527933</v>
       </c>
       <c r="Q31" t="n">
-        <v>2302.354521258208</v>
+        <v>2302.354521258209</v>
       </c>
       <c r="R31" t="n">
-        <v>2302.354521258208</v>
+        <v>2302.354521258209</v>
       </c>
       <c r="S31" t="n">
-        <v>2302.354521258208</v>
+        <v>2302.354521258209</v>
       </c>
       <c r="T31" t="n">
-        <v>2302.354521258208</v>
+        <v>2063.115360363016</v>
       </c>
       <c r="U31" t="n">
-        <v>2302.354521258208</v>
+        <v>1782.983254674541</v>
       </c>
       <c r="V31" t="n">
-        <v>2020.643053866237</v>
+        <v>1501.27178728257</v>
       </c>
       <c r="W31" t="n">
-        <v>1745.79065003875</v>
+        <v>1226.419383455083</v>
       </c>
       <c r="X31" t="n">
-        <v>1503.226753484556</v>
+        <v>983.8554869008877</v>
       </c>
       <c r="Y31" t="n">
-        <v>1276.883985174298</v>
+        <v>881.5199925938707</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1475.120574395237</v>
+        <v>1600.008171696134</v>
       </c>
       <c r="C32" t="n">
-        <v>1048.219844408537</v>
+        <v>1173.107441709434</v>
       </c>
       <c r="D32" t="n">
-        <v>1048.219844408537</v>
+        <v>1173.107441709434</v>
       </c>
       <c r="E32" t="n">
-        <v>622.2429045563948</v>
+        <v>747.1305018572916</v>
       </c>
       <c r="F32" t="n">
-        <v>622.2429045563948</v>
+        <v>322.0063200466918</v>
       </c>
       <c r="G32" t="n">
-        <v>220.043146323013</v>
+        <v>322.0063200466918</v>
       </c>
       <c r="H32" t="n">
-        <v>46.04709042516418</v>
+        <v>46.04709042516419</v>
       </c>
       <c r="I32" t="n">
-        <v>92.67892826359139</v>
+        <v>92.67892826359173</v>
       </c>
       <c r="J32" t="n">
-        <v>241.5106779985542</v>
+        <v>241.5106779985543</v>
       </c>
       <c r="K32" t="n">
-        <v>472.8158994151629</v>
+        <v>472.8158994151632</v>
       </c>
       <c r="L32" t="n">
-        <v>765.7670162911687</v>
+        <v>765.7670162911691</v>
       </c>
       <c r="M32" t="n">
         <v>1096.877863037624</v>
@@ -6715,7 +6715,7 @@
         <v>1434.09617331173</v>
       </c>
       <c r="O32" t="n">
-        <v>1750.354881365387</v>
+        <v>1750.354881365388</v>
       </c>
       <c r="P32" t="n">
         <v>2014.667959145797</v>
@@ -6730,22 +6730,22 @@
         <v>2302.354521258209</v>
       </c>
       <c r="T32" t="n">
-        <v>2090.793754338402</v>
+        <v>2302.354521258209</v>
       </c>
       <c r="U32" t="n">
-        <v>1832.609989268988</v>
+        <v>2044.170756188795</v>
       </c>
       <c r="V32" t="n">
-        <v>1475.120574395237</v>
+        <v>2011.728170528387</v>
       </c>
       <c r="W32" t="n">
-        <v>1475.120574395237</v>
+        <v>2011.728170528387</v>
       </c>
       <c r="X32" t="n">
-        <v>1475.120574395237</v>
+        <v>1600.008171696134</v>
       </c>
       <c r="Y32" t="n">
-        <v>1475.120574395237</v>
+        <v>1600.008171696134</v>
       </c>
     </row>
     <row r="33">
@@ -6770,37 +6770,37 @@
         <v>181.2776238302285</v>
       </c>
       <c r="G33" t="n">
-        <v>88.36848069319257</v>
+        <v>88.36848069319258</v>
       </c>
       <c r="H33" t="n">
-        <v>46.04709042516418</v>
+        <v>46.04709042516419</v>
       </c>
       <c r="I33" t="n">
-        <v>68.66154465776003</v>
+        <v>92.11885050217188</v>
       </c>
       <c r="J33" t="n">
-        <v>300.7332125583082</v>
+        <v>195.2777122734024</v>
       </c>
       <c r="K33" t="n">
-        <v>459.7122305316501</v>
+        <v>354.2567302467443</v>
       </c>
       <c r="L33" t="n">
-        <v>681.006552363903</v>
+        <v>575.5510520789971</v>
       </c>
       <c r="M33" t="n">
-        <v>942.3920792412953</v>
+        <v>836.9365789563894</v>
       </c>
       <c r="N33" t="n">
-        <v>1213.037108037031</v>
+        <v>1107.581607752126</v>
       </c>
       <c r="O33" t="n">
-        <v>1457.01371786714</v>
+        <v>1351.558217582234</v>
       </c>
       <c r="P33" t="n">
-        <v>1649.684833349143</v>
+        <v>1544.229333064237</v>
       </c>
       <c r="Q33" t="n">
-        <v>1770.368502196907</v>
+        <v>1664.913001912001</v>
       </c>
       <c r="R33" t="n">
         <v>1816.58545312808</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1090.878379928814</v>
+        <v>653.174391477711</v>
       </c>
       <c r="C34" t="n">
-        <v>918.9058168077305</v>
+        <v>481.2018283566269</v>
       </c>
       <c r="D34" t="n">
-        <v>755.5890439345012</v>
+        <v>317.8850554833977</v>
       </c>
       <c r="E34" t="n">
-        <v>589.3808380873547</v>
+        <v>317.8850554833977</v>
       </c>
       <c r="F34" t="n">
-        <v>417.5190638619151</v>
+        <v>317.8850554833977</v>
       </c>
       <c r="G34" t="n">
-        <v>252.2217123618489</v>
+        <v>152.5877039833314</v>
       </c>
       <c r="H34" t="n">
         <v>116.9573220988781</v>
       </c>
       <c r="I34" t="n">
-        <v>46.04709042516418</v>
+        <v>46.04709042516419</v>
       </c>
       <c r="J34" t="n">
-        <v>170.0333101502821</v>
+        <v>154.0471940065302</v>
       </c>
       <c r="K34" t="n">
-        <v>505.8324445157267</v>
+        <v>489.8463283719748</v>
       </c>
       <c r="L34" t="n">
-        <v>1000.351707382309</v>
+        <v>607.9766976473918</v>
       </c>
       <c r="M34" t="n">
-        <v>1538.968570135902</v>
+        <v>1146.593560400985</v>
       </c>
       <c r="N34" t="n">
-        <v>1662.352644686151</v>
+        <v>1668.010557793114</v>
       </c>
       <c r="O34" t="n">
-        <v>1773.016930875353</v>
+        <v>2156.37716828552</v>
       </c>
       <c r="P34" t="n">
-        <v>2096.598515279329</v>
+        <v>2247.972012657229</v>
       </c>
       <c r="Q34" t="n">
         <v>2302.354521258209</v>
       </c>
       <c r="R34" t="n">
-        <v>2298.463831994477</v>
+        <v>2302.354521258209</v>
       </c>
       <c r="S34" t="n">
-        <v>2145.052312698431</v>
+        <v>2148.943001962163</v>
       </c>
       <c r="T34" t="n">
-        <v>2030.083119193808</v>
+        <v>2148.943001962163</v>
       </c>
       <c r="U34" t="n">
-        <v>1749.951013505333</v>
+        <v>1868.810896273688</v>
       </c>
       <c r="V34" t="n">
-        <v>1749.951013505333</v>
+        <v>1587.099428881716</v>
       </c>
       <c r="W34" t="n">
-        <v>1749.951013505333</v>
+        <v>1312.247025054229</v>
       </c>
       <c r="X34" t="n">
-        <v>1507.387116951138</v>
+        <v>1069.683128500035</v>
       </c>
       <c r="Y34" t="n">
-        <v>1281.04434864088</v>
+        <v>843.3403601897767</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1186.824236254424</v>
+        <v>1747.341562889606</v>
       </c>
       <c r="C35" t="n">
-        <v>1186.824236254424</v>
+        <v>1320.440832902906</v>
       </c>
       <c r="D35" t="n">
-        <v>1186.824236254424</v>
+        <v>897.1482120879064</v>
       </c>
       <c r="E35" t="n">
-        <v>1149.330260090673</v>
+        <v>471.171272235764</v>
       </c>
       <c r="F35" t="n">
-        <v>724.2060782800736</v>
+        <v>46.04709042516419</v>
       </c>
       <c r="G35" t="n">
-        <v>322.0063200466918</v>
+        <v>46.04709042516419</v>
       </c>
       <c r="H35" t="n">
         <v>46.04709042516419</v>
       </c>
       <c r="I35" t="n">
-        <v>92.67892826359153</v>
+        <v>92.67892826359139</v>
       </c>
       <c r="J35" t="n">
-        <v>241.5106779985541</v>
+        <v>241.510677998554</v>
       </c>
       <c r="K35" t="n">
-        <v>472.8158994151632</v>
+        <v>472.815899415163</v>
       </c>
       <c r="L35" t="n">
-        <v>765.7670162911693</v>
+        <v>765.7670162911689</v>
       </c>
       <c r="M35" t="n">
-        <v>1096.877863037625</v>
+        <v>1096.877863037624</v>
       </c>
       <c r="N35" t="n">
         <v>1434.09617331173</v>
       </c>
       <c r="O35" t="n">
-        <v>1750.354881365388</v>
+        <v>1750.354881365387</v>
       </c>
       <c r="P35" t="n">
         <v>2014.667959145797</v>
@@ -6970,19 +6970,19 @@
         <v>2246.736621068601</v>
       </c>
       <c r="U35" t="n">
-        <v>1988.552855999187</v>
+        <v>2246.736621068601</v>
       </c>
       <c r="V35" t="n">
-        <v>1988.552855999187</v>
+        <v>2167.189927181136</v>
       </c>
       <c r="W35" t="n">
-        <v>1592.161506299534</v>
+        <v>2167.189927181136</v>
       </c>
       <c r="X35" t="n">
-        <v>1592.161506299534</v>
+        <v>2167.189927181136</v>
       </c>
       <c r="Y35" t="n">
-        <v>1186.824236254424</v>
+        <v>2167.189927181136</v>
       </c>
     </row>
     <row r="36">
@@ -7016,16 +7016,16 @@
         <v>92.11885050217188</v>
       </c>
       <c r="J36" t="n">
-        <v>177.7041209142457</v>
+        <v>195.2777122734024</v>
       </c>
       <c r="K36" t="n">
-        <v>336.6831388875876</v>
+        <v>354.2567302467443</v>
       </c>
       <c r="L36" t="n">
-        <v>557.9774607198405</v>
+        <v>575.5510520789971</v>
       </c>
       <c r="M36" t="n">
-        <v>819.3629875972327</v>
+        <v>836.9365789563894</v>
       </c>
       <c r="N36" t="n">
         <v>1107.581607752126</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>547.5446322666239</v>
+        <v>413.9352305825179</v>
       </c>
       <c r="C37" t="n">
-        <v>375.5720691455399</v>
+        <v>413.9352305825179</v>
       </c>
       <c r="D37" t="n">
-        <v>212.2552962723106</v>
+        <v>288.8190963243177</v>
       </c>
       <c r="E37" t="n">
-        <v>46.04709042516419</v>
+        <v>288.8190963243177</v>
       </c>
       <c r="F37" t="n">
-        <v>46.04709042516419</v>
+        <v>116.9573220988781</v>
       </c>
       <c r="G37" t="n">
-        <v>46.04709042516419</v>
+        <v>116.9573220988781</v>
       </c>
       <c r="H37" t="n">
-        <v>46.04709042516419</v>
+        <v>116.9573220988781</v>
       </c>
       <c r="I37" t="n">
         <v>46.04709042516419</v>
@@ -7098,49 +7098,49 @@
         <v>170.0333101502821</v>
       </c>
       <c r="K37" t="n">
-        <v>258.5498354017046</v>
+        <v>505.8324445157267</v>
       </c>
       <c r="L37" t="n">
-        <v>376.6802046771217</v>
+        <v>623.9628137911437</v>
       </c>
       <c r="M37" t="n">
-        <v>915.2970674307145</v>
+        <v>1162.579676544737</v>
       </c>
       <c r="N37" t="n">
-        <v>1436.714064822844</v>
+        <v>1683.996673936866</v>
       </c>
       <c r="O37" t="n">
-        <v>1925.08067531525</v>
+        <v>2156.37716828552</v>
       </c>
       <c r="P37" t="n">
-        <v>2096.59851527933</v>
+        <v>2247.972012657229</v>
       </c>
       <c r="Q37" t="n">
         <v>2302.354521258209</v>
       </c>
       <c r="R37" t="n">
-        <v>2298.463831994477</v>
+        <v>2302.354521258209</v>
       </c>
       <c r="S37" t="n">
-        <v>2145.052312698431</v>
+        <v>2148.943001962163</v>
       </c>
       <c r="T37" t="n">
-        <v>1905.813151803238</v>
+        <v>1909.70384106697</v>
       </c>
       <c r="U37" t="n">
-        <v>1625.681046114763</v>
+        <v>1629.571735378495</v>
       </c>
       <c r="V37" t="n">
-        <v>1343.969578722792</v>
+        <v>1347.860267986523</v>
       </c>
       <c r="W37" t="n">
-        <v>1069.117174895305</v>
+        <v>1073.007864159036</v>
       </c>
       <c r="X37" t="n">
-        <v>826.5532783411096</v>
+        <v>830.4439676048415</v>
       </c>
       <c r="Y37" t="n">
-        <v>737.7106009786896</v>
+        <v>604.1011992945836</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1078.729224695584</v>
+        <v>1018.776908245165</v>
       </c>
       <c r="C38" t="n">
-        <v>1078.729224695584</v>
+        <v>591.8761782584652</v>
       </c>
       <c r="D38" t="n">
-        <v>1078.729224695584</v>
+        <v>168.5835574434655</v>
       </c>
       <c r="E38" t="n">
-        <v>1078.729224695584</v>
+        <v>46.04709042516419</v>
       </c>
       <c r="F38" t="n">
-        <v>724.2060782800736</v>
+        <v>46.04709042516419</v>
       </c>
       <c r="G38" t="n">
-        <v>322.0063200466918</v>
+        <v>46.04709042516419</v>
       </c>
       <c r="H38" t="n">
-        <v>46.04709042516417</v>
+        <v>46.04709042516419</v>
       </c>
       <c r="I38" t="n">
-        <v>92.67892826359096</v>
+        <v>92.67892826359139</v>
       </c>
       <c r="J38" t="n">
-        <v>241.5106779985535</v>
+        <v>241.510677998554</v>
       </c>
       <c r="K38" t="n">
-        <v>472.8158994151624</v>
+        <v>472.815899415163</v>
       </c>
       <c r="L38" t="n">
-        <v>765.7670162911684</v>
+        <v>765.7670162911689</v>
       </c>
       <c r="M38" t="n">
         <v>1096.877863037624</v>
@@ -7192,34 +7192,34 @@
         <v>1750.354881365387</v>
       </c>
       <c r="P38" t="n">
-        <v>2014.667959145796</v>
+        <v>2014.667959145797</v>
       </c>
       <c r="Q38" t="n">
         <v>2205.328001648712</v>
       </c>
       <c r="R38" t="n">
-        <v>2302.354521258208</v>
+        <v>2302.354521258209</v>
       </c>
       <c r="S38" t="n">
-        <v>2302.354521258208</v>
+        <v>2246.736621068601</v>
       </c>
       <c r="T38" t="n">
-        <v>2090.793754338401</v>
+        <v>2246.736621068601</v>
       </c>
       <c r="U38" t="n">
-        <v>1832.609989268987</v>
+        <v>2246.736621068601</v>
       </c>
       <c r="V38" t="n">
-        <v>1475.120574395237</v>
+        <v>2246.736621068601</v>
       </c>
       <c r="W38" t="n">
-        <v>1078.729224695584</v>
+        <v>1850.345271368948</v>
       </c>
       <c r="X38" t="n">
-        <v>1078.729224695584</v>
+        <v>1438.625272536695</v>
       </c>
       <c r="Y38" t="n">
-        <v>1078.729224695584</v>
+        <v>1438.625272536695</v>
       </c>
     </row>
     <row r="39">
@@ -7244,34 +7244,34 @@
         <v>181.2776238302285</v>
       </c>
       <c r="G39" t="n">
-        <v>88.36848069319257</v>
+        <v>88.36848069319258</v>
       </c>
       <c r="H39" t="n">
-        <v>46.04709042516417</v>
+        <v>46.04709042516419</v>
       </c>
       <c r="I39" t="n">
-        <v>92.11885050217185</v>
+        <v>92.11885050217188</v>
       </c>
       <c r="J39" t="n">
         <v>177.7041209142457</v>
       </c>
       <c r="K39" t="n">
-        <v>354.2567302467443</v>
+        <v>336.6831388875876</v>
       </c>
       <c r="L39" t="n">
-        <v>575.5510520789971</v>
+        <v>557.9774607198405</v>
       </c>
       <c r="M39" t="n">
-        <v>836.9365789563894</v>
+        <v>819.3629875972327</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.581607752126</v>
+        <v>1090.008016392969</v>
       </c>
       <c r="O39" t="n">
-        <v>1351.558217582234</v>
+        <v>1333.984626223078</v>
       </c>
       <c r="P39" t="n">
-        <v>1544.229333064237</v>
+        <v>1526.65574170508</v>
       </c>
       <c r="Q39" t="n">
         <v>1664.913001912001</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>410.0445413187851</v>
+        <v>1090.878379928814</v>
       </c>
       <c r="C40" t="n">
-        <v>238.0719781977011</v>
+        <v>918.9058168077305</v>
       </c>
       <c r="D40" t="n">
-        <v>74.7552053244718</v>
+        <v>755.5890439345012</v>
       </c>
       <c r="E40" t="n">
-        <v>46.04709042516417</v>
+        <v>589.3808380873547</v>
       </c>
       <c r="F40" t="n">
-        <v>46.04709042516417</v>
+        <v>417.5190638619151</v>
       </c>
       <c r="G40" t="n">
-        <v>46.04709042516417</v>
+        <v>252.2217123618489</v>
       </c>
       <c r="H40" t="n">
-        <v>46.04709042516417</v>
+        <v>116.9573220988781</v>
       </c>
       <c r="I40" t="n">
-        <v>46.04709042516417</v>
+        <v>46.04709042516419</v>
       </c>
       <c r="J40" t="n">
         <v>170.0333101502821</v>
       </c>
       <c r="K40" t="n">
-        <v>505.8324445157267</v>
+        <v>258.5498354017046</v>
       </c>
       <c r="L40" t="n">
-        <v>1000.351707382309</v>
+        <v>753.0690982682867</v>
       </c>
       <c r="M40" t="n">
-        <v>1538.968570135902</v>
+        <v>1080.496781291658</v>
       </c>
       <c r="N40" t="n">
-        <v>1732.956677523008</v>
+        <v>1203.880855841907</v>
       </c>
       <c r="O40" t="n">
-        <v>1843.620963712211</v>
+        <v>1692.247466334313</v>
       </c>
       <c r="P40" t="n">
-        <v>2247.972012657228</v>
+        <v>2096.59851527933</v>
       </c>
       <c r="Q40" t="n">
-        <v>2302.354521258208</v>
+        <v>2302.354521258209</v>
       </c>
       <c r="R40" t="n">
-        <v>2298.463831994477</v>
+        <v>2302.354521258209</v>
       </c>
       <c r="S40" t="n">
-        <v>2145.05231269843</v>
+        <v>2148.943001962163</v>
       </c>
       <c r="T40" t="n">
-        <v>1905.813151803237</v>
+        <v>1909.70384106697</v>
       </c>
       <c r="U40" t="n">
-        <v>1625.681046114762</v>
+        <v>1909.70384106697</v>
       </c>
       <c r="V40" t="n">
-        <v>1343.969578722791</v>
+        <v>1749.951013505333</v>
       </c>
       <c r="W40" t="n">
-        <v>1069.117174895304</v>
+        <v>1749.951013505333</v>
       </c>
       <c r="X40" t="n">
-        <v>826.5532783411087</v>
+        <v>1507.387116951138</v>
       </c>
       <c r="Y40" t="n">
-        <v>600.2105100308507</v>
+        <v>1281.04434864088</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1483.909936149741</v>
+        <v>1322.217381079006</v>
       </c>
       <c r="C41" t="n">
-        <v>1057.009206163041</v>
+        <v>895.3166510923063</v>
       </c>
       <c r="D41" t="n">
-        <v>1057.009206163041</v>
+        <v>472.0240302773066</v>
       </c>
       <c r="E41" t="n">
-        <v>631.0322663108983</v>
+        <v>46.04709042516419</v>
       </c>
       <c r="F41" t="n">
-        <v>205.9080845002985</v>
+        <v>46.04709042516419</v>
       </c>
       <c r="G41" t="n">
-        <v>205.9080845002985</v>
+        <v>46.04709042516419</v>
       </c>
       <c r="H41" t="n">
         <v>46.04709042516419</v>
       </c>
       <c r="I41" t="n">
-        <v>92.67892826359153</v>
+        <v>92.67892826359162</v>
       </c>
       <c r="J41" t="n">
-        <v>241.5106779985541</v>
+        <v>241.5106779985542</v>
       </c>
       <c r="K41" t="n">
-        <v>472.815899415163</v>
+        <v>472.8158994151631</v>
       </c>
       <c r="L41" t="n">
         <v>765.7670162911689</v>
@@ -7444,19 +7444,19 @@
         <v>2246.736621068601</v>
       </c>
       <c r="U41" t="n">
-        <v>2246.736621068601</v>
+        <v>2139.274649956369</v>
       </c>
       <c r="V41" t="n">
-        <v>1889.24720619485</v>
+        <v>2139.274649956369</v>
       </c>
       <c r="W41" t="n">
-        <v>1889.24720619485</v>
+        <v>2139.274649956369</v>
       </c>
       <c r="X41" t="n">
-        <v>1889.24720619485</v>
+        <v>1727.554651124116</v>
       </c>
       <c r="Y41" t="n">
-        <v>1483.909936149741</v>
+        <v>1322.217381079006</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>46.04709042516419</v>
       </c>
       <c r="I42" t="n">
-        <v>68.66154465776003</v>
+        <v>92.11885050217188</v>
       </c>
       <c r="J42" t="n">
-        <v>300.7332125583082</v>
+        <v>195.2777122734024</v>
       </c>
       <c r="K42" t="n">
-        <v>459.7122305316501</v>
+        <v>354.2567302467443</v>
       </c>
       <c r="L42" t="n">
-        <v>681.006552363903</v>
+        <v>575.5510520789971</v>
       </c>
       <c r="M42" t="n">
-        <v>942.3920792412953</v>
+        <v>836.9365789563894</v>
       </c>
       <c r="N42" t="n">
-        <v>1213.037108037031</v>
+        <v>1107.581607752126</v>
       </c>
       <c r="O42" t="n">
-        <v>1457.01371786714</v>
+        <v>1351.558217582234</v>
       </c>
       <c r="P42" t="n">
-        <v>1649.684833349143</v>
+        <v>1544.229333064237</v>
       </c>
       <c r="Q42" t="n">
-        <v>1770.368502196907</v>
+        <v>1664.913001912001</v>
       </c>
       <c r="R42" t="n">
         <v>1816.58545312808</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1019.968148255101</v>
+        <v>884.2333049830593</v>
       </c>
       <c r="C43" t="n">
-        <v>847.9955851340166</v>
+        <v>712.2607418619752</v>
       </c>
       <c r="D43" t="n">
-        <v>684.6788122607873</v>
+        <v>548.943968988746</v>
       </c>
       <c r="E43" t="n">
-        <v>518.4706064136408</v>
+        <v>382.7357631415995</v>
       </c>
       <c r="F43" t="n">
-        <v>346.6088321882012</v>
+        <v>210.8739889161599</v>
       </c>
       <c r="G43" t="n">
         <v>181.311480688135</v>
@@ -7575,13 +7575,13 @@
         <v>505.8324445157267</v>
       </c>
       <c r="L43" t="n">
-        <v>919.5822428412682</v>
+        <v>623.9628137911437</v>
       </c>
       <c r="M43" t="n">
-        <v>1458.199105594861</v>
+        <v>749.0441960819148</v>
       </c>
       <c r="N43" t="n">
-        <v>1581.58318014511</v>
+        <v>1203.880855841907</v>
       </c>
       <c r="O43" t="n">
         <v>1692.247466334313</v>
@@ -7596,25 +7596,25 @@
         <v>2302.354521258209</v>
       </c>
       <c r="S43" t="n">
-        <v>2302.354521258209</v>
+        <v>2148.943001962163</v>
       </c>
       <c r="T43" t="n">
-        <v>2302.354521258209</v>
+        <v>1909.70384106697</v>
       </c>
       <c r="U43" t="n">
-        <v>2235.604653051077</v>
+        <v>1909.70384106697</v>
       </c>
       <c r="V43" t="n">
-        <v>1953.893185659106</v>
+        <v>1627.992373674999</v>
       </c>
       <c r="W43" t="n">
-        <v>1679.040781831619</v>
+        <v>1353.139969847512</v>
       </c>
       <c r="X43" t="n">
-        <v>1436.476885277424</v>
+        <v>1110.576073293317</v>
       </c>
       <c r="Y43" t="n">
-        <v>1210.134116967166</v>
+        <v>884.2333049830593</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1113.296743260676</v>
+        <v>1747.341562889606</v>
       </c>
       <c r="C44" t="n">
-        <v>686.3960132739762</v>
+        <v>1320.440832902906</v>
       </c>
       <c r="D44" t="n">
-        <v>686.3960132739762</v>
+        <v>897.1482120879064</v>
       </c>
       <c r="E44" t="n">
-        <v>686.3960132739762</v>
+        <v>471.171272235764</v>
       </c>
       <c r="F44" t="n">
-        <v>261.2718314633764</v>
+        <v>46.04709042516419</v>
       </c>
       <c r="G44" t="n">
         <v>46.04709042516419</v>
@@ -7675,25 +7675,25 @@
         <v>2302.354521258209</v>
       </c>
       <c r="S44" t="n">
-        <v>2302.354521258209</v>
+        <v>2246.736621068601</v>
       </c>
       <c r="T44" t="n">
-        <v>2302.354521258209</v>
+        <v>2246.736621068601</v>
       </c>
       <c r="U44" t="n">
-        <v>2302.354521258209</v>
+        <v>2246.736621068601</v>
       </c>
       <c r="V44" t="n">
-        <v>1944.865106384459</v>
+        <v>2159.061561721859</v>
       </c>
       <c r="W44" t="n">
-        <v>1944.865106384459</v>
+        <v>2159.061561721859</v>
       </c>
       <c r="X44" t="n">
-        <v>1533.145107552206</v>
+        <v>1747.341562889606</v>
       </c>
       <c r="Y44" t="n">
-        <v>1533.145107552206</v>
+        <v>1747.341562889606</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>46.04709042516419</v>
       </c>
       <c r="I45" t="n">
-        <v>68.66154465776003</v>
+        <v>92.11885050217188</v>
       </c>
       <c r="J45" t="n">
-        <v>300.7332125583082</v>
+        <v>177.7041209142457</v>
       </c>
       <c r="K45" t="n">
-        <v>459.7122305316501</v>
+        <v>336.6831388875876</v>
       </c>
       <c r="L45" t="n">
-        <v>681.006552363903</v>
+        <v>557.9774607198405</v>
       </c>
       <c r="M45" t="n">
-        <v>942.3920792412953</v>
+        <v>819.3629875972327</v>
       </c>
       <c r="N45" t="n">
-        <v>1213.037108037031</v>
+        <v>1090.008016392969</v>
       </c>
       <c r="O45" t="n">
-        <v>1457.01371786714</v>
+        <v>1333.984626223078</v>
       </c>
       <c r="P45" t="n">
-        <v>1649.684833349143</v>
+        <v>1526.65574170508</v>
       </c>
       <c r="Q45" t="n">
-        <v>1770.368502196907</v>
+        <v>1664.913001912001</v>
       </c>
       <c r="R45" t="n">
         <v>1816.58545312808</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1090.878379928814</v>
+        <v>695.6466979744891</v>
       </c>
       <c r="C46" t="n">
-        <v>918.9058168077305</v>
+        <v>618.3440750446935</v>
       </c>
       <c r="D46" t="n">
-        <v>755.5890439345012</v>
+        <v>455.0273021714642</v>
       </c>
       <c r="E46" t="n">
-        <v>589.3808380873547</v>
+        <v>288.8190963243177</v>
       </c>
       <c r="F46" t="n">
-        <v>417.5190638619151</v>
+        <v>116.9573220988781</v>
       </c>
       <c r="G46" t="n">
-        <v>252.2217123618489</v>
+        <v>116.9573220988781</v>
       </c>
       <c r="H46" t="n">
         <v>116.9573220988781</v>
@@ -7812,16 +7812,16 @@
         <v>505.8324445157267</v>
       </c>
       <c r="L46" t="n">
-        <v>1000.351707382309</v>
+        <v>955.4153990008869</v>
       </c>
       <c r="M46" t="n">
-        <v>1393.252985864965</v>
+        <v>1080.496781291658</v>
       </c>
       <c r="N46" t="n">
-        <v>1516.637060415215</v>
+        <v>1203.880855841907</v>
       </c>
       <c r="O46" t="n">
-        <v>2005.003670907621</v>
+        <v>1692.247466334313</v>
       </c>
       <c r="P46" t="n">
         <v>2096.59851527933</v>
@@ -7830,28 +7830,28 @@
         <v>2302.354521258209</v>
       </c>
       <c r="R46" t="n">
-        <v>2298.463831994477</v>
+        <v>2302.354521258209</v>
       </c>
       <c r="S46" t="n">
-        <v>2145.052312698431</v>
+        <v>2148.943001962163</v>
       </c>
       <c r="T46" t="n">
-        <v>2145.052312698431</v>
+        <v>1909.70384106697</v>
       </c>
       <c r="U46" t="n">
-        <v>2145.052312698431</v>
+        <v>1629.571735378495</v>
       </c>
       <c r="V46" t="n">
-        <v>2024.80341733282</v>
+        <v>1629.571735378495</v>
       </c>
       <c r="W46" t="n">
-        <v>1749.951013505333</v>
+        <v>1354.719331551008</v>
       </c>
       <c r="X46" t="n">
-        <v>1507.387116951138</v>
+        <v>1112.155434996813</v>
       </c>
       <c r="Y46" t="n">
-        <v>1281.04434864088</v>
+        <v>885.8126666865548</v>
       </c>
     </row>
   </sheetData>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.33477671814256</v>
+        <v>12.07614829188452</v>
       </c>
       <c r="K5" t="n">
         <v>8.659599926410685</v>
@@ -8224,7 +8224,7 @@
         <v>4.685892067245952</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01569155241409703</v>
+        <v>0.7271087191361847</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8233,13 +8233,13 @@
         <v>1.488812484839848</v>
       </c>
       <c r="P5" t="n">
-        <v>7.675081654941597</v>
+        <v>6.933710081199632</v>
       </c>
       <c r="Q5" t="n">
-        <v>13.85544183273475</v>
+        <v>13.11407025899278</v>
       </c>
       <c r="R5" t="n">
-        <v>22.35897023222267</v>
+        <v>22.38892463924255</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8376,22 +8376,22 @@
         <v>14.62049047660328</v>
       </c>
       <c r="K7" t="n">
-        <v>9.859780864477683</v>
+        <v>10.60115243821965</v>
       </c>
       <c r="L7" t="n">
         <v>8.449716550665091</v>
       </c>
       <c r="M7" t="n">
-        <v>8.333921380570169</v>
+        <v>7.592549806828204</v>
       </c>
       <c r="N7" t="n">
-        <v>6.833687695472058</v>
+        <v>6.12227052874997</v>
       </c>
       <c r="O7" t="n">
         <v>8.989126892018565</v>
       </c>
       <c r="P7" t="n">
-        <v>10.82060987411565</v>
+        <v>11.53202704083773</v>
       </c>
       <c r="Q7" t="n">
         <v>16.61588587736505</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.415995117306384</v>
+        <v>8.03034542826965</v>
       </c>
       <c r="K8" t="n">
         <v>2.786362146091513</v>
       </c>
       <c r="L8" t="n">
-        <v>6.379558909162661</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5254232498420759</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>2.689305807571515</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0.2941343268911112</v>
@@ -8476,7 +8476,7 @@
         <v>8.128025379424045</v>
       </c>
       <c r="R8" t="n">
-        <v>18.74720796782874</v>
+        <v>27.72714562344173</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8610,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>21.39478029437256</v>
+        <v>12.41484263875958</v>
       </c>
       <c r="K10" t="n">
-        <v>16.43346281027709</v>
+        <v>7.453525154664103</v>
       </c>
       <c r="L10" t="n">
         <v>4.629166113207063</v>
@@ -8622,16 +8622,16 @@
         <v>4.345987427773778</v>
       </c>
       <c r="N10" t="n">
-        <v>2.952904146645743</v>
+        <v>11.93284180225873</v>
       </c>
       <c r="O10" t="n">
-        <v>14.67881595308127</v>
+        <v>15.04164171694442</v>
       </c>
       <c r="P10" t="n">
-        <v>17.29563157015431</v>
+        <v>16.93280580629116</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.881611906857</v>
+        <v>23.86154956246998</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8780,16 +8780,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>234.1036094826143</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>131.3248032493603</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.37539003541804</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8850,13 +8850,13 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>39.07953346156623</v>
       </c>
       <c r="M13" t="n">
-        <v>354.4082905479648</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -8868,7 +8868,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>87.35417876402674</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>70.37539003541826</v>
+        <v>326.4130602513781</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>39.01535248059662</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9090,16 +9090,16 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>39.07953346156624</v>
+        <v>360.0219516362447</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>45.34488222711964</v>
       </c>
       <c r="O16" t="n">
-        <v>366.2873004017981</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>315.9153581548562</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>147.0591694040181</v>
+        <v>66.92392750596294</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>242.0634916556458</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>298.5044852260119</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9327,13 +9327,13 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>39.07953346156624</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>39.07953346156633</v>
       </c>
       <c r="O19" t="n">
         <v>366.2873004017981</v>
@@ -9482,7 +9482,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>70.37539003541826</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.37539003541895</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9564,19 +9564,19 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>360.0219516362447</v>
+        <v>360.0219516362448</v>
       </c>
       <c r="M22" t="n">
-        <v>354.4082905479648</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>6.851949834011194</v>
+        <v>45.34488222711987</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
         <v>152.9025226039384</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>147.966058069166</v>
       </c>
       <c r="K24" t="n">
-        <v>17.75110238298652</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,25 +9795,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
-        <v>298.6054838890142</v>
+        <v>327.3712965549407</v>
       </c>
       <c r="M25" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>152.9025226039384</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>147.966058069166</v>
+        <v>17.75110238298655</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>336.1272888098803</v>
+        <v>313.6683235661902</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>147.966058069166</v>
+        <v>17.75110238298652</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10275,16 +10275,16 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>298.6054838890138</v>
+        <v>336.1272888098803</v>
       </c>
       <c r="P31" t="n">
         <v>315.9153581548562</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>147.966058069166</v>
+        <v>17.75110238298652</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.70880469517259</v>
+        <v>62.56121263077672</v>
       </c>
       <c r="K34" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>234.3300404366331</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>17.75110238298652</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>17.75110238298652</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10746,7 +10746,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -10758,13 +10758,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>381.5174992961649</v>
+        <v>365.3699072317688</v>
       </c>
       <c r="P37" t="n">
-        <v>80.73029857815229</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>17.75110238298652</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>17.7511023829864</v>
       </c>
       <c r="R39" t="n">
         <v>106.5207073584907</v>
@@ -10983,25 +10983,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>417.7126065281028</v>
+        <v>204.3902027602022</v>
       </c>
       <c r="N40" t="n">
-        <v>71.3172048857149</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>147.966058069166</v>
+        <v>17.75110238298652</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11223,16 +11223,16 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
-        <v>298.6054838890146</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>334.8005911209525</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
         <v>315.9153581548562</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>147.966058069166</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>17.7511023829864</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11460,10 +11460,10 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>380.1908016072373</v>
+        <v>334.8005911209526</v>
       </c>
       <c r="M46" t="n">
-        <v>270.5251476685714</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -11472,7 +11472,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
         <v>152.9025226039384</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.90850907487276</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>21.89035111309089</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>18.48928296361337</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>20.97579887987904</v>
       </c>
       <c r="F5" t="n">
         <v>20.13156841875178</v>
@@ -22849,10 +22849,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.032387200693885</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.5425257709165905</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.66994299300174</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>13.65178503121987</v>
       </c>
       <c r="D8" t="n">
-        <v>11.05692405276155</v>
+        <v>10.0797569512367</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>12.73723279800802</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>12.96341090542983</v>
       </c>
       <c r="G8" t="n">
         <v>0.03641654712531528</v>
@@ -23086,10 +23086,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>250.5811996668955</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H11" t="n">
-        <v>8.141024783616899</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>211.1448086517629</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -23323,7 +23323,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>140.5902135799008</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>135.4602252892499</v>
       </c>
       <c r="I13" t="n">
-        <v>75.43872475250879</v>
+        <v>27.95830916533306</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S13" t="n">
         <v>154.9126128011615</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -23509,10 +23509,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>14.12878496015475</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,10 +23557,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>193.0143803965277</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>54.27004918690693</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>11.68284247578065</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S16" t="n">
         <v>154.9126128011615</v>
       </c>
       <c r="T16" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3402845023203</v>
       </c>
       <c r="V16" t="n">
-        <v>24.10416579944985</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>319.6809273932516</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23743,10 +23743,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H17" t="n">
         <v>277.176001558223</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.90941067458684</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>255.632988972596</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>121.1636155729378</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>96.6786588494036</v>
       </c>
       <c r="G19" t="n">
         <v>163.8185422817731</v>
@@ -23910,7 +23910,7 @@
         <v>135.4602252892499</v>
       </c>
       <c r="I19" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>11.68284247578065</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S19" t="n">
         <v>154.9126128011615</v>
       </c>
       <c r="T19" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>53.00005042189838</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23971,22 +23971,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.90941067458684</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>144.2803323632146</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>244.0671109241707</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>144.2450462439726</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>75.43872475250879</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.68284247578065</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S22" t="n">
         <v>154.9126128011615</v>
       </c>
       <c r="T22" t="n">
-        <v>110.7862185623602</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24208,22 +24208,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>91.71028270726703</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>308.488067061453</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>273.1996373253123</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>55.06172118771256</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.4451592506091</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.60192741872</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.6443779850655</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>47.70274609496082</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>70.20112935697679</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>3.851782371094671</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>75.37009612045762</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>365.9881765208017</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.177760651048</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>273.1996373253123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.4451592506091</v>
       </c>
       <c r="U26" t="n">
         <v>255.60192741872</v>
@@ -24505,13 +24505,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>295.900411991876</v>
       </c>
     </row>
     <row r="27">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>140.732859005954</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.6443779850655</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.9117463603411</v>
       </c>
       <c r="I28" t="n">
-        <v>4.118759831915966</v>
+        <v>70.20112935697679</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>3.851782371094671</v>
       </c>
       <c r="S28" t="n">
-        <v>151.8774041030857</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>236.8467692862409</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3307846315909</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24682,10 +24682,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>262.6425264802329</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>311.3794518977732</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>273.1996373253123</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>55.06172118771256</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.4451592506091</v>
       </c>
       <c r="U29" t="n">
         <v>255.60192741872</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.6443779850655</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>4.118759831916854</v>
+        <v>70.20112935697679</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>151.8774041030857</v>
       </c>
       <c r="T31" t="n">
-        <v>236.8467692862409</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3307846315909</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>122.7672012632085</v>
       </c>
     </row>
     <row r="32">
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.177760651048</v>
       </c>
       <c r="H32" t="n">
-        <v>100.943541986442</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>55.06172118771256</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.4451592506091</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>321.7963609212086</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25083,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>98.63766829473231</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>3.851782371094671</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>123.0272677166648</v>
+        <v>236.8467692862409</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>384.5981340515081</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.177760651048</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>273.1996373253123</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>209.4451592506091</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.60192741872</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>275.163293776423</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>37.81863222887876</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.6443779850655</v>
@@ -25332,7 +25332,7 @@
         <v>133.9117463603411</v>
       </c>
       <c r="I37" t="n">
-        <v>70.20112935697679</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>3.851782371094671</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>136.1250900383596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>300.4060681055028</v>
       </c>
       <c r="F38" t="n">
-        <v>69.89502504113892</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.177760651048</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>273.1996373253123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>55.06172118771256</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.4451592506091</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.60192741872</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>136.1250900383604</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.6443779850655</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>133.9117463603411</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>70.20112935697679</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>3.851782371094671</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3307846315909</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>120.7390534320304</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25633,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>398.177760651048</v>
       </c>
       <c r="H41" t="n">
-        <v>114.9372531909294</v>
+        <v>273.1996373253123</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,16 +25684,16 @@
         <v>209.4451592506091</v>
       </c>
       <c r="U41" t="n">
-        <v>255.60192741872</v>
+        <v>149.2145760176101</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>134.3774948393209</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>3.851782371094671</v>
       </c>
       <c r="S43" t="n">
-        <v>151.8774041030857</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>236.8467692862409</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>211.2484151065299</v>
+        <v>277.3307846315909</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>185.1052670232179</v>
+        <v>398.177760651048</v>
       </c>
       <c r="H44" t="n">
         <v>273.1996373253123</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>55.06172118771256</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>209.4451592506091</v>
@@ -25924,7 +25924,7 @@
         <v>255.60192741872</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>267.1162119717382</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>93.72324078937542</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.6443779850655</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>133.9117463603411</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>3.851782371094671</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>236.8467692862409</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3307846315909</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>159.8479463060961</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>636773.2181436562</v>
+        <v>636773.2181436563</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>365726.121100558</v>
+        <v>365726.1211005579</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>417537.3912660751</v>
+        <v>417537.3912660752</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>417537.3912660752</v>
+        <v>417537.3912660751</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>417537.3912660751</v>
+        <v>417537.3912660752</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>417537.3912660752</v>
+        <v>417537.3912660753</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>417537.391266075</v>
+        <v>417537.3912660752</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>417537.3912660751</v>
+        <v>417537.3912660753</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>372952.9973753967</v>
+        <v>372952.9973753965</v>
       </c>
       <c r="C2" t="n">
-        <v>373102.0742705392</v>
+        <v>373102.0742705395</v>
       </c>
       <c r="D2" t="n">
-        <v>374758.7062421624</v>
+        <v>374758.7062421627</v>
       </c>
       <c r="E2" t="n">
-        <v>199900.0674504389</v>
+        <v>199900.0674504388</v>
       </c>
       <c r="F2" t="n">
-        <v>199900.0674504387</v>
+        <v>199900.0674504388</v>
       </c>
       <c r="G2" t="n">
-        <v>199900.0674504387</v>
+        <v>199900.0674504388</v>
       </c>
       <c r="H2" t="n">
         <v>199900.0674504388</v>
       </c>
       <c r="I2" t="n">
-        <v>232881.3915382795</v>
+        <v>232881.3915382796</v>
       </c>
       <c r="J2" t="n">
         <v>232881.3915382796</v>
@@ -26343,19 +26343,19 @@
         <v>232881.3915382796</v>
       </c>
       <c r="L2" t="n">
-        <v>232881.3915382795</v>
+        <v>232881.3915382796</v>
       </c>
       <c r="M2" t="n">
+        <v>232881.3915382796</v>
+      </c>
+      <c r="N2" t="n">
         <v>232881.3915382797</v>
-      </c>
-      <c r="N2" t="n">
-        <v>232881.3915382795</v>
       </c>
       <c r="O2" t="n">
         <v>232881.3915382796</v>
       </c>
       <c r="P2" t="n">
-        <v>232881.3915382797</v>
+        <v>232881.3915382796</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50079.88112084009</v>
+        <v>50079.88112084008</v>
       </c>
       <c r="C3" t="n">
         <v>1180.654180708352</v>
@@ -26392,13 +26392,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>190.8053191907617</v>
+        <v>190.8053191908787</v>
       </c>
       <c r="L3" t="n">
-        <v>2085.106928226842</v>
+        <v>2085.106928226813</v>
       </c>
       <c r="M3" t="n">
-        <v>110764.2347589664</v>
+        <v>110764.2347589665</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>309599.3910919995</v>
       </c>
       <c r="C4" t="n">
-        <v>309360.6547019856</v>
+        <v>309360.6547019857</v>
       </c>
       <c r="D4" t="n">
         <v>306817.6825241755</v>
@@ -26432,28 +26432,28 @@
         <v>27826.91091608833</v>
       </c>
       <c r="G4" t="n">
-        <v>27826.91091608834</v>
+        <v>27826.91091608833</v>
       </c>
       <c r="H4" t="n">
-        <v>27826.91091608834</v>
+        <v>27826.91091608835</v>
       </c>
       <c r="I4" t="n">
+        <v>23898.33654084748</v>
+      </c>
+      <c r="J4" t="n">
         <v>23898.33654084747</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>23898.33654084748</v>
       </c>
-      <c r="K4" t="n">
-        <v>23898.33654084747</v>
-      </c>
       <c r="L4" t="n">
+        <v>23898.33654084749</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23898.33654084749</v>
+      </c>
+      <c r="N4" t="n">
         <v>23898.33654084748</v>
-      </c>
-      <c r="M4" t="n">
-        <v>23898.33654084748</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23898.33654084747</v>
       </c>
       <c r="O4" t="n">
         <v>23898.33654084748</v>
@@ -26490,22 +26490,22 @@
         <v>36949.30081304155</v>
       </c>
       <c r="I5" t="n">
-        <v>46480.69133260344</v>
+        <v>46480.69133260345</v>
       </c>
       <c r="J5" t="n">
+        <v>46480.69133260343</v>
+      </c>
+      <c r="K5" t="n">
         <v>46480.69133260345</v>
       </c>
-      <c r="K5" t="n">
-        <v>46480.69133260343</v>
-      </c>
       <c r="L5" t="n">
-        <v>46480.69133260344</v>
+        <v>46480.69133260345</v>
       </c>
       <c r="M5" t="n">
         <v>46480.69133260345</v>
       </c>
       <c r="N5" t="n">
-        <v>46480.69133260343</v>
+        <v>46480.69133260345</v>
       </c>
       <c r="O5" t="n">
         <v>46480.69133260345</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21486.84150397222</v>
+        <v>-21508.51356871038</v>
       </c>
       <c r="C6" t="n">
-        <v>27732.59227334221</v>
+        <v>27711.49358127809</v>
       </c>
       <c r="D6" t="n">
-        <v>19966.2855617358</v>
+        <v>19951.55853110111</v>
       </c>
       <c r="E6" t="n">
-        <v>-291437.3310831835</v>
+        <v>-292124.5913399405</v>
       </c>
       <c r="F6" t="n">
-        <v>135123.8557213088</v>
+        <v>134436.595464552</v>
       </c>
       <c r="G6" t="n">
-        <v>135123.8557213088</v>
+        <v>134436.595464552</v>
       </c>
       <c r="H6" t="n">
-        <v>135123.8557213089</v>
+        <v>134436.5954645519</v>
       </c>
       <c r="I6" t="n">
-        <v>57321.67071669336</v>
+        <v>56761.26170642822</v>
       </c>
       <c r="J6" t="n">
-        <v>162502.3636648287</v>
+        <v>161941.9546545634</v>
       </c>
       <c r="K6" t="n">
-        <v>162311.5583456379</v>
+        <v>161751.1493353725</v>
       </c>
       <c r="L6" t="n">
-        <v>160417.2567366018</v>
+        <v>159856.8477263366</v>
       </c>
       <c r="M6" t="n">
-        <v>51738.12890586234</v>
+        <v>51177.71989559691</v>
       </c>
       <c r="N6" t="n">
-        <v>162502.3636648286</v>
+        <v>161941.9546545635</v>
       </c>
       <c r="O6" t="n">
-        <v>162502.3636648287</v>
+        <v>161941.9546545634</v>
       </c>
       <c r="P6" t="n">
-        <v>162502.3636648287</v>
+        <v>161941.9546545634</v>
       </c>
     </row>
   </sheetData>
@@ -26807,25 +26807,25 @@
         <v>453.4520759799034</v>
       </c>
       <c r="H4" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="I4" t="n">
-        <v>575.5886303145522</v>
+        <v>575.5886303145523</v>
       </c>
       <c r="J4" t="n">
+        <v>575.5886303145521</v>
+      </c>
+      <c r="K4" t="n">
         <v>575.5886303145523</v>
       </c>
-      <c r="K4" t="n">
-        <v>575.5886303145521</v>
-      </c>
       <c r="L4" t="n">
-        <v>575.5886303145522</v>
+        <v>575.5886303145523</v>
       </c>
       <c r="M4" t="n">
         <v>575.5886303145523</v>
       </c>
       <c r="N4" t="n">
-        <v>575.5886303145521</v>
+        <v>575.5886303145523</v>
       </c>
       <c r="O4" t="n">
         <v>575.5886303145523</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>96.58201908326822</v>
+        <v>96.58201908326816</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7413715737417306</v>
+        <v>0.7413715737421853</v>
       </c>
       <c r="L4" t="n">
-        <v>8.238566081871113</v>
+        <v>8.238566081870999</v>
       </c>
       <c r="M4" t="n">
-        <v>444.4721383242902</v>
+        <v>444.4721383242904</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27700,10 +27700,10 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D6" t="n">
-        <v>102.8015588998678</v>
+        <v>102.1485588177159</v>
       </c>
       <c r="E6" t="n">
-        <v>103.6549143897921</v>
+        <v>102.9135428160502</v>
       </c>
       <c r="F6" t="n">
         <v>92.70937201392488</v>
@@ -27745,13 +27745,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>77.74032578572833</v>
+        <v>78.39332586788025</v>
       </c>
       <c r="T6" t="n">
-        <v>139.2602259074094</v>
+        <v>140.0015974811513</v>
       </c>
       <c r="U6" t="n">
-        <v>182.9130134852156</v>
+        <v>182.1716419114736</v>
       </c>
       <c r="V6" t="n">
         <v>202.9234074721264</v>
@@ -27763,7 +27763,7 @@
         <v>161.1012011972618</v>
       </c>
       <c r="Y6" t="n">
-        <v>137.5545881864986</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="7">
@@ -27788,13 +27788,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>163.7574465809224</v>
+        <v>164.4988181546643</v>
       </c>
       <c r="H7" t="n">
-        <v>140.7671246581231</v>
+        <v>141.5084962318651</v>
       </c>
       <c r="I7" t="n">
-        <v>95.24347546603283</v>
+        <v>95.1551039744428</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,10 +27824,10 @@
         <v>41.52914787767752</v>
       </c>
       <c r="S7" t="n">
-        <v>166.7679659678213</v>
+        <v>166.0265943940794</v>
       </c>
       <c r="T7" t="n">
-        <v>240.4975591017995</v>
+        <v>239.8445590196476</v>
       </c>
       <c r="U7" t="n">
         <v>277.3773904590235</v>
@@ -27934,16 +27934,16 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C9" t="n">
-        <v>108.4213153606063</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D9" t="n">
-        <v>102.8015588998678</v>
+        <v>94.8920298128039</v>
       </c>
       <c r="E9" t="n">
-        <v>103.6549143897921</v>
+        <v>94.67497673417915</v>
       </c>
       <c r="F9" t="n">
-        <v>92.70937201392488</v>
+        <v>83.72943435831189</v>
       </c>
       <c r="G9" t="n">
         <v>92.97452028251483</v>
@@ -27982,19 +27982,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>77.93445730202359</v>
+        <v>68.9545196464106</v>
       </c>
       <c r="T9" t="n">
         <v>139.902022460603</v>
       </c>
       <c r="U9" t="n">
-        <v>173.9314505572324</v>
+        <v>182.9113882128454</v>
       </c>
       <c r="V9" t="n">
-        <v>193.9434698165134</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W9" t="n">
-        <v>185.576225739502</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X9" t="n">
         <v>161.8425727710037</v>
@@ -28016,16 +28016,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>152.703667488884</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>156.6365947016111</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>162.2336273961213</v>
       </c>
       <c r="G10" t="n">
-        <v>164.4781070335314</v>
+        <v>155.4981693779184</v>
       </c>
       <c r="H10" t="n">
         <v>141.3243555367009</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>41.33927213211291</v>
+        <v>32.35933447649992</v>
       </c>
       <c r="S10" t="n">
         <v>166.4070276113493</v>
@@ -28073,7 +28073,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>263.1239421335991</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -31995,7 +31995,7 @@
         <v>17.71369318248255</v>
       </c>
       <c r="I14" t="n">
-        <v>66.68201209985683</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J14" t="n">
         <v>146.801178249406</v>
@@ -32007,7 +32007,7 @@
         <v>272.9504344581586</v>
       </c>
       <c r="M14" t="n">
-        <v>303.7099502530052</v>
+        <v>303.7099502530053</v>
       </c>
       <c r="N14" t="n">
         <v>308.6242947670762</v>
@@ -32016,7 +32016,7 @@
         <v>291.425169993898</v>
       </c>
       <c r="P14" t="n">
-        <v>248.7246402301935</v>
+        <v>248.7246402301936</v>
       </c>
       <c r="Q14" t="n">
         <v>186.7818464210729</v>
@@ -32028,7 +32028,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T14" t="n">
-        <v>7.571506594050273</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U14" t="n">
         <v>0.1383713369558016</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9254399027651291</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H15" t="n">
         <v>8.937801166179012</v>
@@ -32077,7 +32077,7 @@
         <v>31.86273349432572</v>
       </c>
       <c r="J15" t="n">
-        <v>87.43377607659495</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K15" t="n">
         <v>149.4382495618586</v>
@@ -32092,22 +32092,22 @@
         <v>240.6914947108307</v>
       </c>
       <c r="O15" t="n">
-        <v>220.1856947600875</v>
+        <v>220.1856947600876</v>
       </c>
       <c r="P15" t="n">
-        <v>176.7184319587201</v>
+        <v>176.7184319587202</v>
       </c>
       <c r="Q15" t="n">
-        <v>118.1315917985803</v>
+        <v>118.1315917985804</v>
       </c>
       <c r="R15" t="n">
-        <v>57.45845291027707</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S15" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T15" t="n">
-        <v>3.730172239654181</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U15" t="n">
         <v>0.06088420412928484</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7758577269371156</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H16" t="n">
-        <v>6.898080517677269</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I16" t="n">
-        <v>23.33215782461799</v>
+        <v>23.332157824618</v>
       </c>
       <c r="J16" t="n">
-        <v>54.85314129445407</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K16" t="n">
         <v>90.14056136596669</v>
@@ -32174,7 +32174,7 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P16" t="n">
-        <v>93.83646544701256</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q16" t="n">
         <v>64.96750475288884</v>
@@ -32189,7 +32189,7 @@
         <v>3.315028469640402</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04231951237838817</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>17.71369318248255</v>
       </c>
       <c r="I17" t="n">
-        <v>66.68201209985683</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J17" t="n">
         <v>146.801178249406</v>
@@ -32244,7 +32244,7 @@
         <v>272.9504344581586</v>
       </c>
       <c r="M17" t="n">
-        <v>303.7099502530052</v>
+        <v>303.7099502530053</v>
       </c>
       <c r="N17" t="n">
         <v>308.6242947670762</v>
@@ -32253,7 +32253,7 @@
         <v>291.425169993898</v>
       </c>
       <c r="P17" t="n">
-        <v>248.7246402301935</v>
+        <v>248.7246402301936</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7818464210729</v>
@@ -32265,7 +32265,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T17" t="n">
-        <v>7.571506594050273</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U17" t="n">
         <v>0.1383713369558016</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9254399027651291</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H18" t="n">
         <v>8.937801166179012</v>
@@ -32314,7 +32314,7 @@
         <v>31.86273349432572</v>
       </c>
       <c r="J18" t="n">
-        <v>87.43377607659495</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K18" t="n">
         <v>149.4382495618586</v>
@@ -32329,22 +32329,22 @@
         <v>240.6914947108307</v>
       </c>
       <c r="O18" t="n">
-        <v>220.1856947600875</v>
+        <v>220.1856947600876</v>
       </c>
       <c r="P18" t="n">
-        <v>176.7184319587201</v>
+        <v>176.7184319587202</v>
       </c>
       <c r="Q18" t="n">
-        <v>118.1315917985803</v>
+        <v>118.1315917985804</v>
       </c>
       <c r="R18" t="n">
-        <v>57.45845291027707</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S18" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T18" t="n">
-        <v>3.730172239654181</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U18" t="n">
         <v>0.06088420412928484</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7758577269371156</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H19" t="n">
-        <v>6.898080517677269</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I19" t="n">
-        <v>23.33215782461799</v>
+        <v>23.332157824618</v>
       </c>
       <c r="J19" t="n">
-        <v>54.85314129445407</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K19" t="n">
         <v>90.14056136596669</v>
@@ -32411,7 +32411,7 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P19" t="n">
-        <v>93.83646544701256</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q19" t="n">
         <v>64.96750475288884</v>
@@ -32426,7 +32426,7 @@
         <v>3.315028469640402</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04231951237838817</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>17.71369318248255</v>
       </c>
       <c r="I20" t="n">
-        <v>66.68201209985683</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J20" t="n">
         <v>146.801178249406</v>
@@ -32481,7 +32481,7 @@
         <v>272.9504344581586</v>
       </c>
       <c r="M20" t="n">
-        <v>303.7099502530052</v>
+        <v>303.7099502530053</v>
       </c>
       <c r="N20" t="n">
         <v>308.6242947670762</v>
@@ -32490,7 +32490,7 @@
         <v>291.425169993898</v>
       </c>
       <c r="P20" t="n">
-        <v>248.7246402301935</v>
+        <v>248.7246402301936</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7818464210729</v>
@@ -32502,7 +32502,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T20" t="n">
-        <v>7.571506594050273</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U20" t="n">
         <v>0.1383713369558016</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9254399027651291</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H21" t="n">
         <v>8.937801166179012</v>
@@ -32551,7 +32551,7 @@
         <v>31.86273349432572</v>
       </c>
       <c r="J21" t="n">
-        <v>87.43377607659495</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K21" t="n">
         <v>149.4382495618586</v>
@@ -32566,22 +32566,22 @@
         <v>240.6914947108307</v>
       </c>
       <c r="O21" t="n">
-        <v>220.1856947600875</v>
+        <v>220.1856947600876</v>
       </c>
       <c r="P21" t="n">
-        <v>176.7184319587201</v>
+        <v>176.7184319587202</v>
       </c>
       <c r="Q21" t="n">
-        <v>118.1315917985803</v>
+        <v>118.1315917985804</v>
       </c>
       <c r="R21" t="n">
-        <v>57.45845291027707</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S21" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T21" t="n">
-        <v>3.730172239654181</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U21" t="n">
         <v>0.06088420412928484</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7758577269371156</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H22" t="n">
-        <v>6.898080517677269</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I22" t="n">
-        <v>23.33215782461799</v>
+        <v>23.332157824618</v>
       </c>
       <c r="J22" t="n">
-        <v>54.85314129445407</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K22" t="n">
         <v>90.14056136596669</v>
@@ -32648,7 +32648,7 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P22" t="n">
-        <v>93.83646544701256</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q22" t="n">
         <v>64.96750475288884</v>
@@ -32663,7 +32663,7 @@
         <v>3.315028469640402</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04231951237838817</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34944,7 +34944,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.7114171667220877</v>
       </c>
       <c r="N5" t="n">
         <v>0.7413715737419651</v>
@@ -34953,13 +34953,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
         <v>0.7413715737419651</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.7413715737419651</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.7114171667220875</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0.7413715737419651</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="L7" t="n">
         <v>0.7413715737419651</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7413715737419651</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
         <v>0.7114171667220875</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.6143503109632654</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>8.979937655612986</v>
+        <v>2.600378746450325</v>
       </c>
       <c r="M8" t="n">
-        <v>8.617111891749834</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="N8" t="n">
         <v>8.979937655612986</v>
       </c>
       <c r="O8" t="n">
+        <v>6.290631848041471</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
         <v>8.979937655612986</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>8.979937655612986</v>
       </c>
-      <c r="K10" t="n">
+      <c r="O10" t="n">
         <v>8.979937655612986</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>8.617111891749836</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>8.979937655612986</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>39.38459507201445</v>
       </c>
       <c r="J12" t="n">
-        <v>66.82266174326163</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K12" t="n">
         <v>127.0390157285253</v>
@@ -35500,16 +35500,16 @@
         <v>211.3885843242576</v>
       </c>
       <c r="N12" t="n">
-        <v>453.4520759799034</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O12" t="n">
-        <v>328.3386082872257</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P12" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q12" t="n">
-        <v>95.38455350960186</v>
+        <v>165.7599435450199</v>
       </c>
       <c r="R12" t="n">
         <v>140.3062408746237</v>
@@ -35570,13 +35570,13 @@
         <v>112.9251900057248</v>
       </c>
       <c r="K13" t="n">
-        <v>69.17590691325469</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L13" t="n">
-        <v>93.43012434365872</v>
+        <v>132.5096578052249</v>
       </c>
       <c r="M13" t="n">
-        <v>453.4520759799034</v>
+        <v>99.04378543193859</v>
       </c>
       <c r="N13" t="n">
         <v>97.97849100196758</v>
@@ -35588,7 +35588,7 @@
         <v>387.3710229438823</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.7021207521306</v>
+        <v>193.2504645920423</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,13 +35643,13 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>32.13410955589333</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J14" t="n">
-        <v>117.3812187638194</v>
+        <v>117.3812187638195</v>
       </c>
       <c r="K14" t="n">
-        <v>184.2523111213352</v>
+        <v>184.2523111213353</v>
       </c>
       <c r="L14" t="n">
         <v>234.6383920255356</v>
@@ -35658,19 +35658,19 @@
         <v>266.2786873535734</v>
       </c>
       <c r="N14" t="n">
-        <v>271.3446719326301</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O14" t="n">
         <v>254.0342106378739</v>
       </c>
       <c r="P14" t="n">
-        <v>211.1492784199622</v>
+        <v>211.1492784199623</v>
       </c>
       <c r="Q14" t="n">
         <v>150.6571718164749</v>
       </c>
       <c r="R14" t="n">
-        <v>73.61695629332704</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>39.38459507201445</v>
       </c>
       <c r="J15" t="n">
-        <v>361.8756844398183</v>
+        <v>66.82266174326163</v>
       </c>
       <c r="K15" t="n">
-        <v>197.4144057639435</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="L15" t="n">
         <v>178.4230816471201</v>
@@ -35737,7 +35737,7 @@
         <v>211.3885843242576</v>
       </c>
       <c r="N15" t="n">
-        <v>219.348466497289</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O15" t="n">
         <v>197.0138050378653</v>
@@ -35746,7 +35746,7 @@
         <v>154.9475907538915</v>
       </c>
       <c r="Q15" t="n">
-        <v>95.38455350960184</v>
+        <v>134.3999059901985</v>
       </c>
       <c r="R15" t="n">
         <v>140.3062408746237</v>
@@ -35810,16 +35810,16 @@
         <v>318.9563201597416</v>
       </c>
       <c r="L16" t="n">
-        <v>132.5096578052249</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="M16" t="n">
-        <v>99.04378543193857</v>
+        <v>99.04378543193859</v>
       </c>
       <c r="N16" t="n">
-        <v>97.97849100196757</v>
+        <v>143.3233732290872</v>
       </c>
       <c r="O16" t="n">
-        <v>453.4520759799034</v>
+        <v>87.16477557810536</v>
       </c>
       <c r="P16" t="n">
         <v>387.3710229438823</v>
@@ -35880,13 +35880,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>32.13410955589333</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J17" t="n">
-        <v>117.3812187638194</v>
+        <v>117.3812187638195</v>
       </c>
       <c r="K17" t="n">
-        <v>184.2523111213352</v>
+        <v>184.2523111213353</v>
       </c>
       <c r="L17" t="n">
         <v>234.6383920255356</v>
@@ -35895,19 +35895,19 @@
         <v>266.2786873535734</v>
       </c>
       <c r="N17" t="n">
-        <v>271.3446719326301</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O17" t="n">
         <v>254.0342106378739</v>
       </c>
       <c r="P17" t="n">
-        <v>211.1492784199622</v>
+        <v>211.1492784199623</v>
       </c>
       <c r="Q17" t="n">
         <v>150.6571718164749</v>
       </c>
       <c r="R17" t="n">
-        <v>73.61695629332704</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>15.69034674432572</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J18" t="n">
-        <v>213.8818311472797</v>
+        <v>133.7465892492246</v>
       </c>
       <c r="K18" t="n">
-        <v>127.0390157285252</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L18" t="n">
         <v>178.4230816471201</v>
       </c>
       <c r="M18" t="n">
-        <v>453.4520759799034</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N18" t="n">
-        <v>219.348466497289</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O18" t="n">
         <v>197.0138050378653</v>
       </c>
       <c r="P18" t="n">
-        <v>154.9475907538915</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="Q18" t="n">
-        <v>95.38455350960184</v>
+        <v>95.38455350960186</v>
       </c>
       <c r="R18" t="n">
         <v>140.3062408746237</v>
@@ -36047,13 +36047,13 @@
         <v>318.9563201597416</v>
       </c>
       <c r="L19" t="n">
-        <v>132.5096578052249</v>
+        <v>93.43012434365872</v>
       </c>
       <c r="M19" t="n">
-        <v>99.04378543193857</v>
+        <v>99.04378543193859</v>
       </c>
       <c r="N19" t="n">
-        <v>97.97849100196757</v>
+        <v>137.0580244635339</v>
       </c>
       <c r="O19" t="n">
         <v>453.4520759799034</v>
@@ -36117,13 +36117,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>32.13410955589333</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J20" t="n">
-        <v>117.3812187638194</v>
+        <v>117.3812187638195</v>
       </c>
       <c r="K20" t="n">
-        <v>184.2523111213352</v>
+        <v>184.2523111213353</v>
       </c>
       <c r="L20" t="n">
         <v>234.6383920255356</v>
@@ -36132,19 +36132,19 @@
         <v>266.2786873535734</v>
       </c>
       <c r="N20" t="n">
-        <v>271.3446719326301</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O20" t="n">
         <v>254.0342106378739</v>
       </c>
       <c r="P20" t="n">
-        <v>211.1492784199622</v>
+        <v>211.1492784199623</v>
       </c>
       <c r="Q20" t="n">
         <v>150.6571718164749</v>
       </c>
       <c r="R20" t="n">
-        <v>73.61695629332704</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>361.8756844398183</v>
       </c>
       <c r="K21" t="n">
-        <v>197.4144057639435</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L21" t="n">
         <v>178.4230816471201</v>
@@ -36211,7 +36211,7 @@
         <v>211.3885843242576</v>
       </c>
       <c r="N21" t="n">
-        <v>219.348466497289</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O21" t="n">
         <v>197.0138050378653</v>
@@ -36220,7 +36220,7 @@
         <v>154.9475907538915</v>
       </c>
       <c r="Q21" t="n">
-        <v>95.38455350960184</v>
+        <v>165.7599435450208</v>
       </c>
       <c r="R21" t="n">
         <v>140.3062408746237</v>
@@ -36284,19 +36284,19 @@
         <v>318.9563201597416</v>
       </c>
       <c r="L22" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="M22" t="n">
-        <v>453.4520759799034</v>
+        <v>99.04378543193859</v>
       </c>
       <c r="N22" t="n">
-        <v>104.8304408359788</v>
+        <v>143.3233732290875</v>
       </c>
       <c r="O22" t="n">
-        <v>87.16477557810535</v>
+        <v>87.16477557810536</v>
       </c>
       <c r="P22" t="n">
-        <v>71.45566478902607</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q22" t="n">
         <v>193.2504645920423</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>46.53713139091685</v>
+        <v>22.84288306322813</v>
       </c>
       <c r="J24" t="n">
-        <v>86.4497680930039</v>
+        <v>234.4158261621699</v>
       </c>
       <c r="K24" t="n">
-        <v>178.3359690227258</v>
+        <v>160.5848666397393</v>
       </c>
       <c r="L24" t="n">
         <v>223.5296180123766</v>
@@ -36460,7 +36460,7 @@
         <v>121.902695805823</v>
       </c>
       <c r="R24" t="n">
-        <v>153.2044961778571</v>
+        <v>46.68378881936637</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>125.2386057829474</v>
+        <v>46.52980108777477</v>
       </c>
       <c r="K25" t="n">
         <v>339.1910448135804</v>
       </c>
       <c r="L25" t="n">
-        <v>417.9290892177182</v>
+        <v>446.6949018836448</v>
       </c>
       <c r="M25" t="n">
-        <v>544.0574371248413</v>
+        <v>126.3448305967385</v>
       </c>
       <c r="N25" t="n">
-        <v>124.6303783335849</v>
+        <v>526.6838357496255</v>
       </c>
       <c r="O25" t="n">
-        <v>111.782107261821</v>
+        <v>493.299606557986</v>
       </c>
       <c r="P25" t="n">
-        <v>408.4354029747642</v>
+        <v>92.52004481990804</v>
       </c>
       <c r="Q25" t="n">
         <v>207.8343494736158</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>22.84288306322813</v>
+        <v>46.53713139091685</v>
       </c>
       <c r="J27" t="n">
-        <v>234.4158261621699</v>
+        <v>104.2008704759904</v>
       </c>
       <c r="K27" t="n">
         <v>160.5848666397393</v>
@@ -36697,7 +36697,7 @@
         <v>121.902695805823</v>
       </c>
       <c r="R27" t="n">
-        <v>46.68378881936637</v>
+        <v>153.2044961778571</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>125.2386057829474</v>
+        <v>46.52980108777477</v>
       </c>
       <c r="K28" t="n">
-        <v>339.1910448135804</v>
+        <v>89.4106315670935</v>
       </c>
       <c r="L28" t="n">
         <v>499.5144069359415</v>
       </c>
       <c r="M28" t="n">
-        <v>126.3448305967385</v>
+        <v>544.0574371248413</v>
       </c>
       <c r="N28" t="n">
-        <v>124.6303783335849</v>
+        <v>526.6838357496255</v>
       </c>
       <c r="O28" t="n">
-        <v>447.9093960717013</v>
+        <v>425.4504308280112</v>
       </c>
       <c r="P28" t="n">
-        <v>408.4354029747642</v>
+        <v>92.52004481990804</v>
       </c>
       <c r="Q28" t="n">
-        <v>207.8343494736158</v>
+        <v>54.93182686967739</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>22.84288306322813</v>
+        <v>46.53713139091685</v>
       </c>
       <c r="J30" t="n">
-        <v>234.4158261621699</v>
+        <v>104.2008704759904</v>
       </c>
       <c r="K30" t="n">
         <v>160.5848666397393</v>
@@ -36934,7 +36934,7 @@
         <v>121.902695805823</v>
       </c>
       <c r="R30" t="n">
-        <v>46.68378881936637</v>
+        <v>153.2044961778571</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36995,16 +36995,16 @@
         <v>339.1910448135804</v>
       </c>
       <c r="L31" t="n">
-        <v>119.3236053287041</v>
+        <v>499.5144069359415</v>
       </c>
       <c r="M31" t="n">
-        <v>544.0574371248413</v>
+        <v>126.3448305967385</v>
       </c>
       <c r="N31" t="n">
         <v>124.6303783335849</v>
       </c>
       <c r="O31" t="n">
-        <v>410.3875911508349</v>
+        <v>447.9093960717013</v>
       </c>
       <c r="P31" t="n">
         <v>408.4354029747642</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>22.84288306322813</v>
+        <v>46.53713139091685</v>
       </c>
       <c r="J33" t="n">
-        <v>234.4158261621699</v>
+        <v>104.2008704759904</v>
       </c>
       <c r="K33" t="n">
         <v>160.5848666397393</v>
@@ -37171,7 +37171,7 @@
         <v>121.902695805823</v>
       </c>
       <c r="R33" t="n">
-        <v>46.68378881936637</v>
+        <v>153.2044961778571</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>125.2386057829474</v>
+        <v>109.0910137185515</v>
       </c>
       <c r="K34" t="n">
         <v>339.1910448135804</v>
       </c>
       <c r="L34" t="n">
-        <v>499.5144069359415</v>
+        <v>119.3236053287041</v>
       </c>
       <c r="M34" t="n">
         <v>544.0574371248413</v>
       </c>
       <c r="N34" t="n">
-        <v>124.6303783335849</v>
+        <v>526.6838357496255</v>
       </c>
       <c r="O34" t="n">
-        <v>111.782107261821</v>
+        <v>493.299606557986</v>
       </c>
       <c r="P34" t="n">
-        <v>326.8500852565411</v>
+        <v>92.52004481990804</v>
       </c>
       <c r="Q34" t="n">
-        <v>207.8343494736158</v>
+        <v>54.93182686967739</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>46.53713139091685</v>
       </c>
       <c r="J36" t="n">
-        <v>86.4497680930039</v>
+        <v>104.2008704759904</v>
       </c>
       <c r="K36" t="n">
         <v>160.5848666397393</v>
@@ -37396,7 +37396,7 @@
         <v>264.0257847246387</v>
       </c>
       <c r="N36" t="n">
-        <v>291.1299193483766</v>
+        <v>273.3788169653901</v>
       </c>
       <c r="O36" t="n">
         <v>246.4410200304129</v>
@@ -37466,7 +37466,7 @@
         <v>125.2386057829474</v>
       </c>
       <c r="K37" t="n">
-        <v>89.4106315670935</v>
+        <v>339.1910448135804</v>
       </c>
       <c r="L37" t="n">
         <v>119.3236053287041</v>
@@ -37478,13 +37478,13 @@
         <v>526.6838357496255</v>
       </c>
       <c r="O37" t="n">
-        <v>493.299606557986</v>
+        <v>477.1520144935898</v>
       </c>
       <c r="P37" t="n">
-        <v>173.2503433980603</v>
+        <v>92.52004481990804</v>
       </c>
       <c r="Q37" t="n">
-        <v>207.8343494736158</v>
+        <v>54.93182686967739</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>86.4497680930039</v>
       </c>
       <c r="K39" t="n">
-        <v>178.3359690227258</v>
+        <v>160.5848666397393</v>
       </c>
       <c r="L39" t="n">
         <v>223.5296180123766</v>
@@ -37642,7 +37642,7 @@
         <v>194.6172883656588</v>
       </c>
       <c r="Q39" t="n">
-        <v>121.902695805823</v>
+        <v>139.6537981888094</v>
       </c>
       <c r="R39" t="n">
         <v>153.2044961778571</v>
@@ -37703,25 +37703,25 @@
         <v>125.2386057829474</v>
       </c>
       <c r="K40" t="n">
-        <v>339.1910448135804</v>
+        <v>89.4106315670935</v>
       </c>
       <c r="L40" t="n">
         <v>499.5144069359415</v>
       </c>
       <c r="M40" t="n">
-        <v>544.0574371248413</v>
+        <v>330.7350333569407</v>
       </c>
       <c r="N40" t="n">
-        <v>195.9475832192998</v>
+        <v>124.6303783335849</v>
       </c>
       <c r="O40" t="n">
-        <v>111.782107261821</v>
+        <v>493.299606557986</v>
       </c>
       <c r="P40" t="n">
         <v>408.4354029747642</v>
       </c>
       <c r="Q40" t="n">
-        <v>54.93182686967739</v>
+        <v>207.8343494736158</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>22.84288306322813</v>
+        <v>46.53713139091685</v>
       </c>
       <c r="J42" t="n">
-        <v>234.4158261621699</v>
+        <v>104.2008704759904</v>
       </c>
       <c r="K42" t="n">
         <v>160.5848666397393</v>
@@ -37882,7 +37882,7 @@
         <v>121.902695805823</v>
       </c>
       <c r="R42" t="n">
-        <v>46.68378881936637</v>
+        <v>153.2044961778571</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37943,16 +37943,16 @@
         <v>339.1910448135804</v>
       </c>
       <c r="L43" t="n">
-        <v>417.9290892177187</v>
+        <v>119.3236053287041</v>
       </c>
       <c r="M43" t="n">
-        <v>544.0574371248413</v>
+        <v>126.3448305967385</v>
       </c>
       <c r="N43" t="n">
-        <v>124.6303783335849</v>
+        <v>459.4309694545374</v>
       </c>
       <c r="O43" t="n">
-        <v>111.782107261821</v>
+        <v>493.299606557986</v>
       </c>
       <c r="P43" t="n">
         <v>408.4354029747642</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>22.84288306322813</v>
+        <v>46.53713139091685</v>
       </c>
       <c r="J45" t="n">
-        <v>234.4158261621699</v>
+        <v>86.4497680930039</v>
       </c>
       <c r="K45" t="n">
         <v>160.5848666397393</v>
@@ -38116,10 +38116,10 @@
         <v>194.6172883656588</v>
       </c>
       <c r="Q45" t="n">
-        <v>121.902695805823</v>
+        <v>139.6537981888094</v>
       </c>
       <c r="R45" t="n">
-        <v>46.68378881936637</v>
+        <v>153.2044961778571</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38180,10 +38180,10 @@
         <v>339.1910448135804</v>
       </c>
       <c r="L46" t="n">
-        <v>499.5144069359415</v>
+        <v>454.1241964496567</v>
       </c>
       <c r="M46" t="n">
-        <v>396.8699782653098</v>
+        <v>126.3448305967385</v>
       </c>
       <c r="N46" t="n">
         <v>124.6303783335849</v>
@@ -38192,7 +38192,7 @@
         <v>493.299606557986</v>
       </c>
       <c r="P46" t="n">
-        <v>92.52004481990804</v>
+        <v>408.4354029747642</v>
       </c>
       <c r="Q46" t="n">
         <v>207.8343494736158</v>
